--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ShkiVYgc</t>
+          <t>WIs9mjGL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,83 +728,83 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.1</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="n">
         <v>15</v>
       </c>
-      <c r="Y2" t="n">
-        <v>13</v>
-      </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
         <v>34</v>
@@ -813,94 +813,94 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL2" t="n">
         <v>17</v>
       </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GQsijwdo</t>
+          <t>dYt8RjgM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,41 +910,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -965,124 +965,124 @@
         <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>12</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA3" t="n">
         <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
       </c>
       <c r="AH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI3" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.6</v>
+        <v>51</v>
       </c>
       <c r="AX3" t="n">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="AY3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>21</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>29</v>
-      </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ITxbTnvh</t>
+          <t>6sN0DJyp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Mlada Boleslav</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>5.35</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="S4" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AO4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7</v>
-      </c>
       <c r="AV4" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.7</v>
+        <v>501</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pzuN8YL7</t>
+          <t>GQsijwdo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,174 +1279,174 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
         <v>2.38</v>
       </c>
-      <c r="L5" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
+        <v>12</v>
+      </c>
+      <c r="X5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="n">
         <v>15</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W5" t="n">
-        <v>11</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL5" t="n">
         <v>15</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>21</v>
       </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="BA5" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD5" t="n">
         <v>126</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gfm6CGMr</t>
+          <t>O4A1cABk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
         <v>13</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
         <v>21</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA6" t="n">
         <v>41</v>
       </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>67</v>
       </c>
-      <c r="BB6" t="n">
-        <v>126</v>
-      </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W4I3LB5D</t>
+          <t>UTo8axyP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.6</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.83</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
         <v>15</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>15</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
         <v>23</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
         <v>41</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8bXRMclQ</t>
+          <t>xUBBOnAl</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,95 +1820,95 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Zalaegerszegi</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.5</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V8" t="n">
         <v>2</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
         <v>17</v>
       </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1917,82 +1917,82 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY8" t="n">
         <v>19</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY8" t="n">
+      <c r="AZ8" t="n">
         <v>26</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
       <c r="BA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="n">
         <v>81</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>151</v>
       </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>827KtBjC</t>
+          <t>ITxbTnvh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>Kuressaare</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>1.44</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.2</v>
       </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH9" t="n">
         <v>9</v>
       </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AI9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY9" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>12.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>16.5</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GQi5RjCr</t>
+          <t>v7ZHKh9t</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,170 +2184,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W10" t="n">
         <v>10</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8.5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>13</v>
       </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>26</v>
-      </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="n">
         <v>15</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>26</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>xYNVNqee</t>
+          <t>pzuN8YL7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DPMM</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P11" t="n">
         <v>4.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W11" t="n">
+        <v>12</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
         <v>34</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="AG11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>10</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T11" t="n">
-        <v>5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>17</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
         <v>13</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AP11" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.5</v>
+        <v>351</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD11" t="n">
         <v>81</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>djM3qr4k</t>
+          <t>Gfm6CGMr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tampines</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>17</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R12" t="n">
-        <v>6</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
         <v>7</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W12" t="n">
-        <v>29</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
         <v>21</v>
       </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AJ12" t="n">
         <v>13</v>
       </c>
-      <c r="AC12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AK12" t="n">
         <v>41</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
       </c>
       <c r="AL12" t="n">
         <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX12" t="n">
         <v>5.5</v>
       </c>
-      <c r="AO12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
+      <c r="AY12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>23</v>
       </c>
-      <c r="AW12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cv4nELYS</t>
+          <t>W4I3LB5D</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2735,93 +2735,93 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>4.33</v>
       </c>
       <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.75</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>13</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
@@ -2830,43 +2830,43 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK13" t="n">
         <v>15</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AL13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM13" t="n">
         <v>23</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>7.5</v>
@@ -2875,34 +2875,34 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.5</v>
+        <v>351</v>
       </c>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
         <v>81</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QN5vGs4G</t>
+          <t>8bXRMclQ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,95 +2912,95 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
         <v>12</v>
       </c>
-      <c r="Y14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -3009,46 +3009,46 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
         <v>10</v>
       </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13</v>
-      </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
@@ -3057,34 +3057,34 @@
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>67</v>
       </c>
       <c r="BB14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC14" t="n">
         <v>151</v>
       </c>
-      <c r="BC14" t="n">
-        <v>501</v>
-      </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MF8mpoZq</t>
+          <t>z598IB0N</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>PDRM FC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L15" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9.65</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.75</v>
+        <v>4.3</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>4.85</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="BC15" t="n">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="BD15" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jTHcS5R0</t>
+          <t>827KtBjC</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,95 +3276,95 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
         <v>10</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>13</v>
-      </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
         <v>26</v>
       </c>
-      <c r="AA16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3373,46 +3373,46 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>12</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>10</v>
-      </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
         <v>8</v>
@@ -3421,27 +3421,937 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.5</v>
+        <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="BA16" t="n">
         <v>67</v>
       </c>
       <c r="BB16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GQi5RjCr</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
         <v>151</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cv4nELYS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Gefle</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>QN5vGs4G</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W19" t="n">
+        <v>9</v>
+      </c>
+      <c r="X19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD19" t="n">
         <v>126</v>
       </c>
-      <c r="BD16" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MF8mpoZq</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9</v>
+      </c>
+      <c r="X20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>jTHcS5R0</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD21" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,16 +941,16 @@
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
         <v>2.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -965,16 +965,16 @@
         <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>12</v>
@@ -1004,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
@@ -1013,10 +1013,10 @@
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK3" t="n">
         <v>11</v>
@@ -1073,7 +1073,7 @@
         <v>51</v>
       </c>
       <c r="BC3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>
@@ -1317,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1660,25 +1660,25 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1687,10 +1687,10 @@
         <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1705,10 +1705,10 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1723,7 +1723,7 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1735,16 +1735,16 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
         <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
         <v>23</v>
@@ -1753,7 +1753,7 @@
         <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
         <v>4.75</v>
@@ -1786,22 +1786,22 @@
         <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
         <v>67</v>
       </c>
       <c r="BC7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ITxbTnvh</t>
+          <t>v7ZHKh9t</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.3</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.44</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S9" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
         <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.8</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.3</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>9.5</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
         <v>15</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AO9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AU9" t="n">
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX9" t="n">
         <v>7</v>
       </c>
-      <c r="AV9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>3.7</v>
-      </c>
       <c r="AY9" t="n">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>16.5</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>v7ZHKh9t</t>
+          <t>2RkbcGxq</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,170 +2184,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
         <v>4</v>
       </c>
-      <c r="I10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX10" t="n">
         <v>5</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>17</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AY10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>29</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>26</v>
-      </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
@@ -2415,10 +2415,10 @@
         <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="n">
         <v>1.3</v>
@@ -2427,10 +2427,10 @@
         <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
@@ -2451,7 +2451,7 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
         <v>7.5</v>
@@ -2475,16 +2475,16 @@
         <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
@@ -2514,7 +2514,7 @@
         <v>351</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.6</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -2597,13 +2597,13 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
         <v>3.25</v>
@@ -2618,10 +2618,10 @@
         <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
         <v>17</v>
@@ -2648,7 +2648,7 @@
         <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -2660,13 +2660,13 @@
         <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
         <v>10</v>
@@ -2749,43 +2749,43 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
         <v>3</v>
@@ -2800,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>15</v>
@@ -2812,13 +2812,13 @@
         <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2833,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
@@ -2854,7 +2854,7 @@
         <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
         <v>67</v>
@@ -2881,13 +2881,13 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ13" t="n">
         <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8bXRMclQ</t>
+          <t>lKFOH1jS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,41 +2912,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Aue</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Zalaegerszegi</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2961,49 +2961,49 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>12</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3012,34 +3012,34 @@
         <v>151</v>
       </c>
       <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
         <v>13</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
         <v>21</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3048,43 +3048,43 @@
         <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AY14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>21</v>
       </c>
-      <c r="AZ14" t="n">
-        <v>26</v>
-      </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
         <v>81</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>z598IB0N</t>
+          <t>fewPp0KE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PDRM FC</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.3</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.02</v>
-      </c>
       <c r="L15" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>9.65</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>3.28</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.9</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BC15" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>827KtBjC</t>
+          <t>YiieCuEk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,131 +3276,131 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T16" t="n">
         <v>3.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="U16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
         <v>11</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="n">
         <v>8</v>
       </c>
-      <c r="X16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AE16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
         <v>17</v>
       </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AM16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>15</v>
       </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AP16" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
@@ -3409,37 +3409,37 @@
         <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GQi5RjCr</t>
+          <t>b9gMQvTr</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,170 +3458,170 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="S17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.44</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>2.63</v>
       </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
         <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
         <v>21</v>
       </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
         <v>251</v>
       </c>
-      <c r="AH17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI17" t="n">
+      <c r="AX17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY17" t="n">
         <v>13</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
+      <c r="AZ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC17" t="n">
         <v>81</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>201</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cv4nELYS</t>
+          <t>6ZdUOIce</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,47 +3640,47 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Sandhausen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -3689,130 +3689,130 @@
         <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V18" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
         <v>9</v>
       </c>
-      <c r="Y18" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
         <v>15</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>13</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
         <v>23</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
+      <c r="AM18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>34</v>
       </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>29</v>
-      </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB18" t="n">
         <v>67</v>
       </c>
-      <c r="BB18" t="n">
+      <c r="BC18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD18" t="n">
         <v>81</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>QN5vGs4G</t>
+          <t>8bXRMclQ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,95 +3822,95 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="n">
         <v>23</v>
       </c>
-      <c r="AA19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>26</v>
-      </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -3922,43 +3922,43 @@
         <v>151</v>
       </c>
       <c r="AH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
         <v>10</v>
       </c>
-      <c r="AI19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>13</v>
-      </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
         <v>7.5</v>
@@ -3967,34 +3967,34 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC19" t="n">
         <v>151</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MF8mpoZq</t>
+          <t>2a5kF5Fc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,59 +4004,59 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>2.63</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4071,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X20" t="n">
         <v>13</v>
@@ -4092,7 +4092,7 @@
         <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4143,13 +4143,13 @@
         <v>2.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="AX20" t="n">
         <v>4.75</v>
@@ -4161,7 +4161,7 @@
         <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB20" t="n">
         <v>67</v>
@@ -4170,13 +4170,13 @@
         <v>151</v>
       </c>
       <c r="BD20" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jTHcS5R0</t>
+          <t>z598IB0N</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,172 +4186,1810 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>PDRM FC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.55</v>
+        <v>2.87</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>8.85</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.73</v>
       </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>8.5</v>
       </c>
-      <c r="X21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
         <v>23</v>
       </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
       <c r="AN21" t="n">
-        <v>4.75</v>
+        <v>4.35</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW21" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AY21" t="n">
         <v>15</v>
       </c>
       <c r="AZ21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>fkjuDkOp</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MALAYSIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Kedah</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Selangor</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W22" t="n">
+        <v>13</v>
+      </c>
+      <c r="X22" t="n">
         <v>23</v>
       </c>
-      <c r="BA21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB21" t="n">
+      <c r="Y22" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>45</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>827KtBjC</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pruszkow</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>S. Wola</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA23" t="n">
         <v>67</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BB23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GQi5RjCr</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
         <v>151</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8YaeRbGD</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cv4nELYS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Gefle</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>15</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>QN5vGs4G</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Aykr6Se3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>19</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W28" t="n">
+        <v>10</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>f1OlURdl</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W29" t="n">
+        <v>13</v>
+      </c>
+      <c r="X29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>OIXIZmZQ</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8</v>
+      </c>
+      <c r="X30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD30" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD30"/>
+  <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
@@ -756,10 +756,10 @@
         <v>1.95</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>2.6</v>
@@ -771,31 +771,31 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
         <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
@@ -822,16 +822,16 @@
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>9.5</v>
@@ -843,13 +843,13 @@
         <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -864,10 +864,10 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -894,13 +894,13 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dYt8RjgM</t>
+          <t>4z48FZf5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,59 +910,59 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,79 +971,79 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>12</v>
       </c>
-      <c r="X3" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>67</v>
-      </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>34</v>
-      </c>
       <c r="AP3" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
         <v>151</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>351</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
@@ -1055,34 +1055,34 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6sN0DJyp</t>
+          <t>dYt8RjgM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,174 +1097,174 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mlada Boleslav</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W4" t="n">
         <v>12</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
         <v>11</v>
       </c>
-      <c r="X4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AL4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" t="n">
         <v>34</v>
       </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AN4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP4" t="n">
         <v>41</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AQ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR4" t="n">
         <v>151</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
         <v>9</v>
       </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="AV4" t="n">
         <v>67</v>
       </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
       <c r="AW4" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AZ4" t="n">
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BB4" t="n">
         <v>51</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GQsijwdo</t>
+          <t>6sN0DJyp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Mlada Boleslav</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.1</v>
       </c>
-      <c r="L5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="W5" t="n">
+        <v>11</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY5" t="n">
         <v>12</v>
-      </c>
-      <c r="X5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>9</v>
       </c>
       <c r="AZ5" t="n">
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>O4A1cABk</t>
+          <t>GQsijwdo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,59 +1456,59 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1517,118 +1517,118 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>13</v>
       </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BB6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC6" t="n">
         <v>151</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UTo8axyP</t>
+          <t>O4A1cABk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,43 +1648,43 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
@@ -1699,16 +1699,16 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1723,28 +1723,28 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
         <v>23</v>
@@ -1753,10 +1753,10 @@
         <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1789,19 +1789,19 @@
         <v>4.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
         <v>67</v>
       </c>
       <c r="BC7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xUBBOnAl</t>
+          <t>UTo8axyP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,133 +1830,133 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.2</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="R8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
         <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1968,10 +1968,10 @@
         <v>126</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1980,19 +1980,19 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>v7ZHKh9t</t>
+          <t>xUBBOnAl</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,159 +2007,159 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
         <v>17</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
       </c>
-      <c r="X9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>13</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
         <v>17</v>
       </c>
-      <c r="AI9" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
         <v>8</v>
       </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
         <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
         <v>81</v>
@@ -2168,13 +2168,13 @@
         <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2RkbcGxq</t>
+          <t>v7ZHKh9t</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,170 +2184,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
         <v>2.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.25</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
         <v>21</v>
       </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>13</v>
       </c>
       <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
         <v>34</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
       </c>
       <c r="AN10" t="n">
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>29</v>
       </c>
       <c r="BA10" t="n">
         <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pzuN8YL7</t>
+          <t>2RkbcGxq</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,170 +2366,170 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
         <v>17</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>12</v>
-      </c>
-      <c r="X11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
         <v>101</v>
       </c>
-      <c r="AT11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>51</v>
-      </c>
       <c r="BC11" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gfm6CGMr</t>
+          <t>pzuN8YL7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,124 +2558,124 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="H12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>17</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T12" t="n">
         <v>3.5</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
         <v>17</v>
       </c>
-      <c r="AA12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13</v>
-      </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
         <v>21</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2684,10 +2684,10 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>
@@ -2696,22 +2696,22 @@
         <v>351</v>
       </c>
       <c r="AX12" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>19</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>23</v>
-      </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W4I3LB5D</t>
+          <t>Gfm6CGMr</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,88 +2740,88 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.83</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
+        <v>9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
         <v>13</v>
-      </c>
-      <c r="X13" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
@@ -2830,70 +2830,70 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
         <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
         <v>351</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lKFOH1jS</t>
+          <t>W4I3LB5D</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,41 +2912,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aue</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L14" t="n">
         <v>2.38</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2955,16 +2955,16 @@
         <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
@@ -2973,37 +2973,37 @@
         <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y14" t="n">
         <v>15</v>
       </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
         <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3012,40 +3012,40 @@
         <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL14" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>19</v>
       </c>
       <c r="AM14" t="n">
         <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
         <v>3.25</v>
@@ -3054,28 +3054,28 @@
         <v>7.5</v>
       </c>
       <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB14" t="n">
         <v>41</v>
       </c>
-      <c r="AW14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>51</v>
-      </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>fewPp0KE</t>
+          <t>lKFOH1jS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,49 +3104,49 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Aue</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R15" t="n">
         <v>2.05</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.1</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3155,37 +3155,37 @@
         <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
@@ -3194,40 +3194,40 @@
         <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
         <v>19</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>23</v>
-      </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
         <v>3.25</v>
@@ -3242,22 +3242,22 @@
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YiieCuEk</t>
+          <t>fewPp0KE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,118 +3286,118 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
         <v>17</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>13</v>
-      </c>
-      <c r="X16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
         <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
         <v>23</v>
       </c>
-      <c r="AL16" t="n">
-        <v>17</v>
-      </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>19</v>
@@ -3409,37 +3409,37 @@
         <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>b9gMQvTr</t>
+          <t>YiieCuEk</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,85 +3468,85 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.4</v>
       </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>19</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P17" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.63</v>
       </c>
       <c r="W17" t="n">
         <v>13</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
@@ -3558,43 +3558,43 @@
         <v>101</v>
       </c>
       <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
         <v>13</v>
       </c>
-      <c r="AI17" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU17" t="n">
         <v>7</v>
@@ -3603,25 +3603,25 @@
         <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ17" t="n">
         <v>17</v>
       </c>
       <c r="BA17" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB17" t="n">
         <v>41</v>
       </c>
-      <c r="BB17" t="n">
-        <v>51</v>
-      </c>
       <c r="BC17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6ZdUOIce</t>
+          <t>b9gMQvTr</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,94 +3650,94 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sandhausen</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
+        <v>19</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W18" t="n">
+        <v>13</v>
+      </c>
+      <c r="X18" t="n">
         <v>15</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
         <v>10</v>
       </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
         <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
@@ -3746,37 +3746,37 @@
         <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3785,25 +3785,25 @@
         <v>41</v>
       </c>
       <c r="AW18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC18" t="n">
         <v>81</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>126</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8bXRMclQ</t>
+          <t>6ZdUOIce</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,128 +3822,128 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Sandhausen</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Zalaegerszegi</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L19" t="n">
         <v>3.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.25</v>
       </c>
-      <c r="L19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
         <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>19</v>
@@ -3955,46 +3955,46 @@
         <v>51</v>
       </c>
       <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC19" t="n">
         <v>126</v>
       </c>
-      <c r="AT19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB19" t="n">
+      <c r="BD19" t="n">
         <v>81</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2a5kF5Fc</t>
+          <t>8bXRMclQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,95 +4004,95 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J20" t="n">
         <v>2.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
         <v>3.25</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4101,46 +4101,46 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>13</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
         <v>10</v>
       </c>
-      <c r="AK20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>15</v>
-      </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU20" t="n">
         <v>7.5</v>
@@ -4152,19 +4152,19 @@
         <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC20" t="n">
         <v>151</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>z598IB0N</t>
+          <t>2a5kF5Fc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,170 +4186,170 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PDRM FC</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>8.85</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>3.08</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="S21" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="n">
         <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>6.6</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM21" t="n">
         <v>29</v>
       </c>
-      <c r="AL21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM21" t="n">
+      <c r="AN21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP21" t="n">
         <v>23</v>
       </c>
-      <c r="AN21" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
         <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AY21" t="n">
         <v>15</v>
       </c>
       <c r="AZ21" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="BB21" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="BC21" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BD21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fkjuDkOp</t>
+          <t>z598IB0N</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4378,136 +4378,136 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kedah</t>
+          <t>PDRM FC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Selangor</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>2.32</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.65</v>
+        <v>2.87</v>
       </c>
       <c r="J22" t="n">
-        <v>4.4</v>
+        <v>2.92</v>
       </c>
       <c r="K22" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>2.15</v>
+        <v>3.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>12.9</v>
+        <v>8.85</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>4.3</v>
+        <v>3.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="R22" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="T22" t="n">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="U22" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="V22" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="W22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
         <v>13</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AJ22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM22" t="n">
         <v>23</v>
       </c>
-      <c r="Y22" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG22" t="n">
+      <c r="AN22" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS22" t="n">
         <v>200</v>
       </c>
-      <c r="AH22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>250</v>
-      </c>
       <c r="AT22" t="n">
-        <v>3.15</v>
+        <v>2.57</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AV22" t="n">
         <v>50</v>
@@ -4516,22 +4516,22 @@
         <v>51</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="AY22" t="n">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="BB22" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="BC22" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BD22" t="n">
         <v>51</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>827KtBjC</t>
+          <t>fkjuDkOp</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>Kedah</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Selangor</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="J23" t="n">
-        <v>2.63</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W23" t="n">
+        <v>13</v>
+      </c>
+      <c r="X23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AK23" t="n">
         <v>11</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
-      </c>
-      <c r="W23" t="n">
-        <v>8</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="AL23" t="n">
         <v>10</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AM23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>15</v>
       </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>26</v>
-      </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="BB23" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="BC23" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GQi5RjCr</t>
+          <t>fJV1glzI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,161 +4732,161 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T24" t="n">
         <v>2.5</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
         <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA24" t="n">
         <v>23</v>
       </c>
-      <c r="AA24" t="n">
-        <v>21</v>
-      </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>251</v>
+        <v>800</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
         <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
         <v>4.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
         <v>51</v>
       </c>
       <c r="AR24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
         <v>67</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
       </c>
       <c r="AW24" t="n">
         <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
         <v>51</v>
@@ -4895,7 +4895,7 @@
         <v>81</v>
       </c>
       <c r="BC24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD24" t="n">
         <v>81</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -5321,16 +5321,16 @@
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
@@ -5351,19 +5351,19 @@
         <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD27" t="n">
         <v>6</v>
@@ -5381,16 +5381,16 @@
         <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>34</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
         <v>34</v>
@@ -5399,16 +5399,16 @@
         <v>4.33</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
@@ -5991,6 +5991,188 @@
       </c>
       <c r="BD30" t="n">
         <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>YDWWmgsT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Karpaty Lviv</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD41"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -768,7 +768,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -807,7 +807,7 @@
         <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>4.5</v>
@@ -876,7 +876,7 @@
         <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
@@ -953,16 +953,16 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -971,10 +971,10 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
@@ -983,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>10</v>
@@ -995,25 +995,25 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>19</v>
@@ -1031,19 +1031,19 @@
         <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
         <v>3.75</v>
@@ -1052,19 +1052,19 @@
         <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>451</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
@@ -1076,13 +1076,13 @@
         <v>151</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dr2N9zoI</t>
+          <t>n5Eg2hB4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.5</v>
       </c>
-      <c r="L4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.75</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI4" t="n">
         <v>13</v>
       </c>
-      <c r="X4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>15</v>
       </c>
-      <c r="AB4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
         <v>81</v>
       </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
       <c r="AS4" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY4" t="n">
         <v>15</v>
       </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BD4" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pOryx3Qa</t>
+          <t>dr2N9zoI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>GERMANY - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.3</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>1.44</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>2.63</v>
       </c>
       <c r="W5" t="n">
+        <v>13</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>10</v>
       </c>
-      <c r="X5" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="AP5" t="n">
         <v>15</v>
       </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AQ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY5" t="n">
         <v>17</v>
       </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>11</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC5" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t6UwyBXH</t>
+          <t>pOryx3Qa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,83 +1456,83 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.3</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W6" t="n">
         <v>10</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13</v>
-      </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
         <v>41</v>
@@ -1541,85 +1541,85 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>13</v>
-      </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
         <v>126</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BB6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dA00HeQh</t>
+          <t>MFxnZl2U</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K7" t="n">
         <v>2.38</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>2.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
         <v>7</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY7" t="n">
         <v>12</v>
       </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AZ7" t="n">
         <v>19</v>
       </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
-      </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BC7" t="n">
-        <v>401</v>
+        <v>101</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YFePBifU</t>
+          <t>YuRVxX25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,98 +1820,98 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1920,46 +1920,46 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
         <v>26</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>34</v>
       </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,16 +1968,16 @@
         <v>501</v>
       </c>
       <c r="AX8" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>82Byv8Nc</t>
+          <t>YFePBifU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,74 +2002,74 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AUSTRIA - BUNDESLIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
         <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>8.5</v>
@@ -2078,34 +2078,34 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
@@ -2123,22 +2123,22 @@
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2150,7 +2150,7 @@
         <v>501</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rPJkG4Vj</t>
+          <t>4z4UzMX5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AUSTRIA - BUNDESLIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grazer AK</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.25</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
         <v>6.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W10" t="n">
         <v>8</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>23</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>11</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>10</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AK10" t="n">
         <v>21</v>
       </c>
-      <c r="AC10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AL10" t="n">
         <v>21</v>
       </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>51</v>
-      </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="AS10" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AT10" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="BB10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD10" t="n">
         <v>126</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>xr3hzQMM</t>
+          <t>82Byv8Nc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,160 +2376,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SK Rapid</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>15</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
         <v>13</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY11" t="n">
         <v>23</v>
       </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AZ11" t="n">
         <v>29</v>
       </c>
-      <c r="AL11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
+      <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
         <v>101</v>
       </c>
-      <c r="AT11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>51</v>
-      </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>84OwxCbL</t>
+          <t>rPJkG4Vj</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,170 +2548,170 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Leuven</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>21</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.7</v>
       </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="V12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP12" t="n">
         <v>13</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="AQ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT12" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>15</v>
-      </c>
-      <c r="X12" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>34</v>
       </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>19</v>
-      </c>
       <c r="BA12" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="BB12" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MiWTCYjS</t>
+          <t>xr3hzQMM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,41 +2730,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gorica</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2785,124 +2785,124 @@
         <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
         <v>7</v>
       </c>
-      <c r="X13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AE13" t="n">
         <v>12</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
         <v>29</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO13" t="n">
         <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>6</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC13" t="n">
         <v>126</v>
       </c>
-      <c r="AT13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>351</v>
-      </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lj0M4SGF</t>
+          <t>84OwxCbL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
         <v>4</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" t="n">
         <v>15</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W14" t="n">
-        <v>13</v>
-      </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>19</v>
       </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="BA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC14" t="n">
         <v>126</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>101</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>O0hmcxl8</t>
+          <t>MiWTCYjS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>Osijek</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>Gorica</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="I15" t="n">
-        <v>1.95</v>
+        <v>9.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>2.63</v>
+        <v>8.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="n">
         <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>17</v>
       </c>
-      <c r="AL15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ15" t="n">
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
         <v>81</v>
       </c>
-      <c r="AR15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>51</v>
-      </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BB15" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nTfcSi4m</t>
+          <t>YgbeZ0b3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,41 +3276,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J16" t="n">
         <v>2.05</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3319,22 +3319,22 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T16" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U16" t="n">
         <v>1.67</v>
@@ -3346,25 +3346,25 @@
         <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
         <v>15</v>
       </c>
-      <c r="AB16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3376,67 +3376,67 @@
         <v>151</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>17</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
-      </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>29</v>
       </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
+      <c r="BA16" t="n">
         <v>81</v>
       </c>
-      <c r="AX16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>51</v>
-      </c>
       <c r="BB16" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
         <v>151</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xUkjHyCm</t>
+          <t>lj0M4SGF</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Puskas Academy</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ujpest</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R17" t="n">
         <v>2.2</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
         <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AI17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA17" t="n">
         <v>29</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA17" t="n">
+      <c r="BB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC17" t="n">
         <v>101</v>
       </c>
-      <c r="BB17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>201</v>
-      </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UiYObpVG</t>
+          <t>2iiidd3E</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,146 +3640,146 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kiryat Shmona</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.67</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
         <v>8.5</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>19</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
         <v>17</v>
       </c>
-      <c r="AD18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>23</v>
-      </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
         <v>351</v>
       </c>
       <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
         <v>23</v>
       </c>
-      <c r="AI18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3788,22 +3788,22 @@
         <v>51</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC18" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MRUG0604</t>
+          <t>ULBpYl1C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,170 +3822,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="J19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
         <v>3.25</v>
       </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="Q19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO19" t="n">
         <v>8</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="AP19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU19" t="n">
         <v>7.5</v>
       </c>
-      <c r="X19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW19" t="n">
         <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.75</v>
+        <v>7.1</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AZ19" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="BB19" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC19" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zD3cDqpA</t>
+          <t>G4ptafdJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,146 +4004,146 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.2</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
         <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V20" t="n">
         <v>2.1</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
         <v>23</v>
       </c>
-      <c r="AA20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>29</v>
-      </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
         <v>4.33</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
         <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
@@ -4152,22 +4152,22 @@
         <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>17</v>
       </c>
       <c r="AZ20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
         <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>j7MXdOaT</t>
+          <t>MRUG0604</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4196,160 +4196,160 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Sakhnin</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>2.35</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
+        <v>7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
         <v>17</v>
       </c>
-      <c r="X21" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
         <v>8</v>
       </c>
       <c r="AI21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
         <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
         <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AY21" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BC21" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8z1srGqg</t>
+          <t>zD3cDqpA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,170 +4368,170 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
         <v>6.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU22" t="n">
         <v>8</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>13</v>
-      </c>
-      <c r="X22" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH22" t="n">
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX22" t="n">
         <v>4.75</v>
       </c>
-      <c r="AI22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL22" t="n">
+      <c r="AY22" t="n">
         <v>17</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>8.5</v>
       </c>
       <c r="AZ22" t="n">
         <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD22" t="n">
         <v>51</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>821Z9twA</t>
+          <t>j7MXdOaT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="K23" t="n">
         <v>2.38</v>
       </c>
       <c r="L23" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U23" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
+        <v>17</v>
+      </c>
+      <c r="X23" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
         <v>12</v>
-      </c>
-      <c r="X23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>15</v>
       </c>
       <c r="AD23" t="n">
         <v>7.5</v>
       </c>
       <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>12</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AL23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP23" t="n">
         <v>34</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AQ23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC23" t="n">
         <v>126</v>
       </c>
-      <c r="AH23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>101</v>
-      </c>
       <c r="BD23" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mo3RB28c</t>
+          <t>8z1srGqg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,173 +4732,173 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.57</v>
+        <v>6.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>1.53</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.5</v>
       </c>
-      <c r="L24" t="n">
-        <v>5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="V24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>13</v>
+      </c>
+      <c r="X24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL24" t="n">
         <v>17</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y24" t="n">
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY24" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>26</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC24" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD24" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
@@ -5121,7 +5121,7 @@
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -5133,28 +5133,28 @@
         <v>2.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U26" t="n">
         <v>1.57</v>
@@ -5175,7 +5175,7 @@
         <v>34</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
         <v>26</v>
@@ -5208,16 +5208,16 @@
         <v>21</v>
       </c>
       <c r="AL26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO26" t="n">
         <v>15</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>17</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
@@ -5232,7 +5232,7 @@
         <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU26" t="n">
         <v>7</v>
@@ -5247,7 +5247,7 @@
         <v>4.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ26" t="n">
         <v>19</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0r13FcWg</t>
+          <t>z1FoSzGa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5470,160 +5470,160 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.35</v>
+        <v>17</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J28" t="n">
+        <v>12</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>17</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W28" t="n">
+        <v>34</v>
+      </c>
+      <c r="X28" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>251</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>401</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>351</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX28" t="n">
         <v>3.1</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>9</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W28" t="n">
-        <v>7</v>
-      </c>
-      <c r="X28" t="n">
+      <c r="AY28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA28" t="n">
         <v>11</v>
       </c>
-      <c r="Y28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="BB28" t="n">
         <v>34</v>
       </c>
-      <c r="AC28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW28" t="n">
+      <c r="BC28" t="n">
         <v>126</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>251</v>
       </c>
       <c r="BD28" t="n">
         <v>126</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>boR8oC3E</t>
+          <t>hSQzldmm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,65 +5642,65 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U29" t="n">
         <v>1.91</v>
@@ -5712,25 +5712,25 @@
         <v>6.5</v>
       </c>
       <c r="X29" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
@@ -5742,10 +5742,10 @@
         <v>351</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>13</v>
@@ -5760,46 +5760,46 @@
         <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU29" t="n">
         <v>8.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ29" t="n">
         <v>34</v>
       </c>
       <c r="BA29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB29" t="n">
         <v>101</v>
@@ -5808,13 +5808,13 @@
         <v>251</v>
       </c>
       <c r="BD29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>hSQzldmm</t>
+          <t>lpZEsxxi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,173 +5824,173 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.1</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2</v>
-      </c>
       <c r="L30" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
         <v>8</v>
       </c>
       <c r="O30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S30" t="n">
         <v>1.4</v>
       </c>
-      <c r="P30" t="n">
+      <c r="T30" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.91</v>
       </c>
-      <c r="V30" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W30" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB30" t="n">
         <v>34</v>
       </c>
       <c r="AC30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH30" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>9</v>
-      </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
         <v>26</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX30" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY30" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AZ30" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB30" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC30" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD30" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -6207,64 +6207,64 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H32" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J32" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K32" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
         <v>5.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S32" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="T32" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="U32" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V32" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W32" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X32" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z32" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA32" t="n">
         <v>12.5</v>
@@ -6273,85 +6273,85 @@
         <v>28</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE32" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF32" t="n">
         <v>90</v>
       </c>
       <c r="AG32" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI32" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ32" t="n">
         <v>18</v>
       </c>
       <c r="AK32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL32" t="n">
         <v>60</v>
       </c>
       <c r="AM32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO32" t="n">
         <v>7.3</v>
       </c>
       <c r="AP32" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ32" t="n">
         <v>23</v>
       </c>
       <c r="AR32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS32" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="AU32" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AV32" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AW32" t="n">
         <v>51</v>
       </c>
       <c r="AX32" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AY32" t="n">
         <v>32</v>
       </c>
       <c r="AZ32" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="BA32" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB32" t="n">
         <v>250</v>
       </c>
       <c r="BC32" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD32" t="n">
         <v>51</v>
@@ -6407,10 +6407,10 @@
         <v>4.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O33" t="n">
         <v>1.14</v>
@@ -6601,10 +6601,10 @@
         <v>3.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R34" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S34" t="n">
         <v>1.44</v>
@@ -6935,13 +6935,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H36" t="n">
         <v>5.25</v>
       </c>
       <c r="I36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
         <v>1.8</v>
@@ -6950,7 +6950,7 @@
         <v>2.75</v>
       </c>
       <c r="L36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6959,16 +6959,16 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S36" t="n">
         <v>1.25</v>
@@ -6983,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X36" t="n">
         <v>8</v>
@@ -7004,10 +7004,10 @@
         <v>19</v>
       </c>
       <c r="AD36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="n">
         <v>51</v>
@@ -7034,16 +7034,16 @@
         <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP36" t="n">
         <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR36" t="n">
         <v>34</v>
@@ -7117,61 +7117,61 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L37" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R37" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V37" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z37" t="n">
         <v>23</v>
@@ -7183,46 +7183,46 @@
         <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE37" t="n">
         <v>12</v>
       </c>
       <c r="AF37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI37" t="n">
         <v>15</v>
       </c>
       <c r="AJ37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM37" t="n">
         <v>26</v>
       </c>
-      <c r="AL37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>23</v>
-      </c>
       <c r="AN37" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO37" t="n">
         <v>13</v>
       </c>
       <c r="AP37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
         <v>41</v>
@@ -7237,10 +7237,10 @@
         <v>3.25</v>
       </c>
       <c r="AU37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
         <v>351</v>
@@ -7249,16 +7249,16 @@
         <v>5</v>
       </c>
       <c r="AY37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ37" t="n">
         <v>21</v>
       </c>
       <c r="BA37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC37" t="n">
         <v>126</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C0oa2peS</t>
+          <t>M3CfFQUG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,179 +7280,179 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H38" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J38" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="K38" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="P38" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="R38" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="S38" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="T38" t="n">
-        <v>3.75</v>
+        <v>2.77</v>
       </c>
       <c r="U38" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="V38" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="W38" t="n">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="X38" t="n">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z38" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="AD38" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AG38" t="n">
-        <v>126</v>
+        <v>800</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK38" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AL38" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM38" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AN38" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="AO38" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AP38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ38" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR38" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AS38" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV38" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AW38" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY38" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AZ38" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="BA38" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BB38" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="BC38" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="BD38" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2PKplmlK</t>
+          <t>xOzFUlJ7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,536 +7462,172 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Briton Ferry</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J39" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W39" t="n">
+        <v>9</v>
+      </c>
+      <c r="X39" t="n">
         <v>11</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X39" t="n">
-        <v>9</v>
       </c>
       <c r="Y39" t="n">
         <v>8.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AA39" t="n">
         <v>15</v>
       </c>
       <c r="AB39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL39" t="n">
         <v>26</v>
       </c>
-      <c r="AC39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI39" t="n">
+      <c r="AM39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>500</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ39" t="n">
         <v>21</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>29</v>
-      </c>
       <c r="BA39" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BB39" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC39" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BD39" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>M3CfFQUG</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Memphis</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N40" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W40" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X40" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>35</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>xOzFUlJ7</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>14:15</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Briton Ferry</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Aberystwyth</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N41" t="n">
-        <v>8</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T41" t="n">
-        <v>3</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W41" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X41" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>500</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD41" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD30"/>
+  <dimension ref="A1:BD34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -795,16 +795,16 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -846,19 +846,19 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>23</v>
@@ -1132,7 +1132,7 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
         <v>1.14</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1335,25 +1335,25 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
         <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1365,37 +1365,37 @@
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
         <v>34</v>
@@ -1404,10 +1404,10 @@
         <v>81</v>
       </c>
       <c r="AR5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1422,10 +1422,10 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
         <v>23</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
@@ -1505,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1538,7 +1538,7 @@
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>17</v>
@@ -1604,7 +1604,7 @@
         <v>351</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
@@ -2227,16 +2227,16 @@
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2245,16 +2245,16 @@
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
         <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
         <v>15</v>
@@ -2263,7 +2263,7 @@
         <v>51</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2275,19 +2275,19 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
@@ -2299,16 +2299,16 @@
         <v>13</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
         <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>81</v>
@@ -2317,7 +2317,7 @@
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
@@ -2332,7 +2332,7 @@
         <v>501</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY10" t="n">
         <v>9</v>
@@ -2347,7 +2347,7 @@
         <v>51</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MiWTCYjS</t>
+          <t>4fr2UO6t</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,47 +2366,47 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>RAAL La Louviere</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gorica</t>
+          <t>RFC Liege</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2415,10 +2415,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2427,109 +2427,109 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
         <v>29</v>
       </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>67</v>
-      </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
         <v>81</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YgbeZ0b3</t>
+          <t>YJ7nRvLG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>15</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
         <v>11</v>
       </c>
-      <c r="AA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>19</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
       </c>
       <c r="AK12" t="n">
         <v>67</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="AX12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2iiidd3E</t>
+          <t>jkB9cVAF</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
+        <v>5</v>
+      </c>
+      <c r="X13" t="n">
         <v>7</v>
-      </c>
-      <c r="X13" t="n">
-        <v>10</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB13" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ULBpYl1C</t>
+          <t>YgbeZ0b3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2917,174 +2917,174 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.62</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN14" t="n">
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT14" t="n">
         <v>3.4</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AU14" t="n">
         <v>8</v>
       </c>
-      <c r="AP14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU14" t="n">
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX14" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AY14" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G4ptafdJ</t>
+          <t>2iiidd3E</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3099,105 +3099,105 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
         <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
         <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>12</v>
@@ -3206,34 +3206,34 @@
         <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3245,19 +3245,19 @@
         <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC15" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>j7MXdOaT</t>
+          <t>ULBpYl1C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,170 +3276,170 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>1.55</v>
+        <v>5.9</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA16" t="n">
         <v>13</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>17</v>
-      </c>
-      <c r="X16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>41</v>
-      </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU16" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AW16" t="n">
         <v>51</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="AY16" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="BB16" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8z1srGqg</t>
+          <t>W6sFgYy8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.42</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y17" t="n">
         <v>8.5</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>15</v>
       </c>
-      <c r="X17" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB17" t="n">
         <v>101</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>301</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>51</v>
       </c>
       <c r="BC17" t="n">
         <v>251</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MVhYBgZu</t>
+          <t>G4ptafdJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>6.25</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.83</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N18" t="n">
-        <v>23</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.36</v>
       </c>
-      <c r="R18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.2</v>
-      </c>
       <c r="T18" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
       </c>
       <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH18" t="n">
         <v>11</v>
       </c>
-      <c r="AA18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AI18" t="n">
         <v>17</v>
       </c>
-      <c r="AC18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
         <v>126</v>
       </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>67</v>
-      </c>
       <c r="AT18" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="AX18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
-        <v>176</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q1G3IypQ</t>
+          <t>j7MXdOaT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,41 +3822,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3865,10 +3865,10 @@
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
         <v>1.7</v>
@@ -3883,118 +3883,118 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
+        <v>17</v>
+      </c>
+      <c r="X19" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
         <v>12</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AD19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" t="n">
         <v>17</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
         <v>11</v>
       </c>
-      <c r="Z19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AL19" t="n">
         <v>12</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>17</v>
       </c>
       <c r="AM19" t="n">
         <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
         <v>3.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY19" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BB19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IDzwah6t</t>
+          <t>8z1srGqg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.83</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T20" t="n">
         <v>2.5</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="U20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W20" t="n">
+        <v>13</v>
+      </c>
+      <c r="X20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU20" t="n">
         <v>11</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8</v>
-      </c>
-      <c r="X20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AV20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>26</v>
       </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>29</v>
-      </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>z1FoSzGa</t>
+          <t>t2EltfE5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
         <v>21</v>
       </c>
-      <c r="H21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
         <v>13</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>17</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>41</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="AP21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
         <v>81</v>
       </c>
-      <c r="Y21" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>501</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>401</v>
-      </c>
       <c r="AS21" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AV21" t="n">
         <v>81</v>
       </c>
       <c r="AW21" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>4.75</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hSQzldmm</t>
+          <t>MVhYBgZu</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>6.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>1.83</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>23</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T22" t="n">
         <v>4.33</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X22" t="n">
         <v>9.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB22" t="n">
         <v>19</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AC22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>19</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AK22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
         <v>34</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
       </c>
       <c r="AN22" t="n">
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AP22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>26</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>34</v>
-      </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC22" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lpZEsxxi</t>
+          <t>MX1ZCF7m</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,59 +4550,59 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.91</v>
+        <v>1.45</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4611,103 +4611,103 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="W23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL23" t="n">
         <v>13</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>17</v>
       </c>
       <c r="AM23" t="n">
         <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ23" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AR23" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT23" t="n">
         <v>2.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
         <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AY23" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
       </c>
       <c r="BA23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BB23" t="n">
         <v>51</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>QTfbG3sQ</t>
+          <t>IDzwah6t</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.45</v>
+        <v>1.83</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P24" t="n">
         <v>3.75</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.3</v>
-      </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="S24" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="V24" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>29</v>
       </c>
-      <c r="AB24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>15.5</v>
-      </c>
       <c r="BA24" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="BC24" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="BD24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hvsLsK0f</t>
+          <t>z1FoSzGa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,47 +4914,47 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.65</v>
+        <v>21</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>1.13</v>
       </c>
       <c r="J25" t="n">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O25" t="n">
         <v>1.14</v>
@@ -4963,10 +4963,10 @@
         <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S25" t="n">
         <v>1.25</v>
@@ -4975,118 +4975,118 @@
         <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="V25" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>9.5</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>351</v>
       </c>
       <c r="AA25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL25" t="n">
         <v>12</v>
       </c>
-      <c r="AB25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ25" t="n">
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
         <v>15</v>
       </c>
-      <c r="AK25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4</v>
-      </c>
       <c r="AO25" t="n">
-        <v>8.5</v>
+        <v>67</v>
       </c>
       <c r="AP25" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>501</v>
       </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="AS25" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AT25" t="n">
         <v>3.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW25" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AX25" t="n">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="AY25" t="n">
-        <v>23</v>
+        <v>4.75</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="BB25" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="BC25" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD25" t="n">
         <v>126</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>xURoV1Yo</t>
+          <t>0bDipEnC</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,131 +5096,131 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
         <v>2.88</v>
       </c>
       <c r="K26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U26" t="n">
         <v>2.1</v>
       </c>
-      <c r="L26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="V26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6</v>
+      </c>
+      <c r="X26" t="n">
         <v>9</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>10</v>
       </c>
       <c r="Y26" t="n">
         <v>9.5</v>
       </c>
       <c r="Z26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA26" t="n">
         <v>21</v>
       </c>
-      <c r="AA26" t="n">
-        <v>19</v>
-      </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
         <v>34</v>
       </c>
-      <c r="AL26" t="n">
-        <v>29</v>
-      </c>
       <c r="AM26" t="n">
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
@@ -5229,46 +5229,46 @@
         <v>67</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA26" t="n">
         <v>81</v>
       </c>
-      <c r="AX26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>51</v>
-      </c>
       <c r="BB26" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC26" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fa1yqL9C</t>
+          <t>lpZEsxxi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,146 +5278,146 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
         <v>8.5</v>
       </c>
-      <c r="J27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="O27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T27" t="n">
         <v>2.75</v>
       </c>
-      <c r="L27" t="n">
+      <c r="U27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W27" t="n">
+        <v>11</v>
+      </c>
+      <c r="X27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
         <v>7</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO27" t="n">
         <v>21</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P27" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
-      </c>
-      <c r="W27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="AP27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU27" t="n">
         <v>8</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
@@ -5426,22 +5426,22 @@
         <v>81</v>
       </c>
       <c r="AX27" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="AY27" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AZ27" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA27" t="n">
         <v>34</v>
       </c>
-      <c r="BA27" t="n">
+      <c r="BB27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC27" t="n">
         <v>151</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>201</v>
       </c>
       <c r="BD27" t="n">
         <v>81</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>O27Gu7KH</t>
+          <t>QTfbG3sQ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5465,174 +5465,174 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Podbrezova</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.45</v>
+        <v>3.45</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="L28" t="n">
-        <v>3.25</v>
+        <v>2.42</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S28" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T28" t="n">
         <v>3.25</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="V28" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="W28" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB28" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG28" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="AI28" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AR28" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AS28" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="AT28" t="n">
         <v>3.25</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW28" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX28" t="n">
-        <v>5</v>
+        <v>4.05</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="BA28" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BC28" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="BD28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>M3CfFQUG</t>
+          <t>hvsLsK0f</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Orange County SC</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
         <v>4.5</v>
       </c>
       <c r="J29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>17</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V29" t="n">
         <v>2.25</v>
       </c>
-      <c r="K29" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W29" t="n">
-        <v>6.3</v>
+        <v>10</v>
       </c>
       <c r="X29" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z29" t="n">
         <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB29" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="AE29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH29" t="n">
         <v>17</v>
       </c>
-      <c r="AF29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AL29" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM29" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AR29" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AS29" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AX29" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AZ29" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="BB29" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="BC29" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="BD29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xOzFUlJ7</t>
+          <t>xURoV1Yo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,172 +5824,900 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Briton Ferry</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
         <v>3.25</v>
       </c>
       <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W30" t="n">
+        <v>7</v>
+      </c>
+      <c r="X30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>jk98sTk5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N31" t="n">
+        <v>13</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W31" t="n">
+        <v>10</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>rcJWAQ0L</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W32" t="n">
+        <v>6</v>
+      </c>
+      <c r="X32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>M3CfFQUG</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>xOzFUlJ7</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Briton Ferry</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J34" t="n">
         <v>2.57</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K34" t="n">
         <v>2.25</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L34" t="n">
         <v>3.65</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M34" t="n">
         <v>1.04</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N34" t="n">
         <v>8.25</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O34" t="n">
         <v>1.22</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P34" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q34" t="n">
         <v>1.7</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R34" t="n">
         <v>2.07</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S34" t="n">
         <v>1.33</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T34" t="n">
         <v>3.05</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U34" t="n">
         <v>1.6</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V34" t="n">
         <v>2.22</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W34" t="n">
         <v>9</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X34" t="n">
         <v>10.75</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y34" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="Z34" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AA34" t="n">
         <v>15</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB34" t="n">
         <v>22</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC34" t="n">
         <v>8.25</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AD34" t="n">
         <v>7</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AE34" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF34" t="n">
         <v>45</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG34" t="n">
         <v>300</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AH34" t="n">
         <v>12.5</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AI34" t="n">
         <v>20</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AJ34" t="n">
         <v>11.25</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AK34" t="n">
         <v>45</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AL34" t="n">
         <v>26</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AM34" t="n">
         <v>28</v>
       </c>
-      <c r="AN30" t="n">
+      <c r="AN34" t="n">
         <v>4.1</v>
       </c>
-      <c r="AO30" t="n">
+      <c r="AO34" t="n">
         <v>10.25</v>
       </c>
-      <c r="AP30" t="n">
+      <c r="AP34" t="n">
         <v>16.5</v>
       </c>
-      <c r="AQ30" t="n">
+      <c r="AQ34" t="n">
         <v>37</v>
       </c>
-      <c r="AR30" t="n">
+      <c r="AR34" t="n">
         <v>60</v>
       </c>
-      <c r="AS30" t="n">
+      <c r="AS34" t="n">
         <v>175</v>
       </c>
-      <c r="AT30" t="n">
+      <c r="AT34" t="n">
         <v>3.05</v>
       </c>
-      <c r="AU30" t="n">
+      <c r="AU34" t="n">
         <v>6.6</v>
       </c>
-      <c r="AV30" t="n">
+      <c r="AV34" t="n">
         <v>50</v>
       </c>
-      <c r="AW30" t="n">
+      <c r="AW34" t="n">
         <v>500</v>
       </c>
-      <c r="AX30" t="n">
+      <c r="AX34" t="n">
         <v>5.4</v>
       </c>
-      <c r="AY30" t="n">
+      <c r="AY34" t="n">
         <v>17</v>
       </c>
-      <c r="AZ30" t="n">
+      <c r="AZ34" t="n">
         <v>21</v>
       </c>
-      <c r="BA30" t="n">
+      <c r="BA34" t="n">
         <v>80</v>
       </c>
-      <c r="BB30" t="n">
+      <c r="BB34" t="n">
         <v>100</v>
       </c>
-      <c r="BC30" t="n">
+      <c r="BC34" t="n">
         <v>200</v>
       </c>
-      <c r="BD30" t="n">
+      <c r="BD34" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -801,7 +801,7 @@
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
@@ -852,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>23</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -977,22 +977,22 @@
         <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
         <v>26</v>
       </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
         <v>8</v>
@@ -1013,13 +1013,13 @@
         <v>7.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -1028,13 +1028,13 @@
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
@@ -1064,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="AZ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>51</v>
@@ -1132,7 +1132,7 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
         <v>1.14</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pOryx3Qa</t>
+          <t>MFxnZl2U</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.5</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>2.5</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
         <v>19</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH5" t="n">
         <v>13</v>
       </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AI5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
         <v>19</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>19</v>
       </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR5" t="n">
+      <c r="BA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC5" t="n">
         <v>101</v>
       </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>201</v>
-      </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MFxnZl2U</t>
+          <t>YuRVxX25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
         <v>17</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX6" t="n">
         <v>5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>12</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>26</v>
       </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>19</v>
-      </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YuRVxX25</t>
+          <t>YFePBifU</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,98 +1638,98 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
         <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,46 +1738,46 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>17</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AQ7" t="n">
         <v>26</v>
       </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1786,16 +1786,16 @@
         <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YFePBifU</t>
+          <t>4z4UzMX5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.38</v>
       </c>
-      <c r="L8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="U8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
         <v>13</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY8" t="n">
         <v>13</v>
       </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AZ8" t="n">
         <v>26</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>29</v>
-      </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB8" t="n">
         <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4z4UzMX5</t>
+          <t>Sl5AWkMr</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Royale Union SG</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.1</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
         <v>13</v>
       </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
       </c>
       <c r="AL9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>21</v>
       </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR9" t="n">
+      <c r="BA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC9" t="n">
         <v>126</v>
       </c>
-      <c r="AS9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>251</v>
-      </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>84OwxCbL</t>
+          <t>4fr2UO6t</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leuven</t>
+          <t>RAAL La Louviere</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>RFC Liege</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.67</v>
       </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
         <v>13</v>
       </c>
-      <c r="X10" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>41</v>
-      </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>26</v>
       </c>
-      <c r="AN10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
         <v>81</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>51</v>
       </c>
       <c r="BC10" t="n">
         <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4fr2UO6t</t>
+          <t>YJ7nRvLG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,174 +2371,174 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RAAL La Louviere</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>RFC Liege</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="J11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.4</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>13</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO11" t="n">
         <v>9.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
         <v>126</v>
       </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>81</v>
-      </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YJ7nRvLG</t>
+          <t>Wp6dbeX7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,95 +2548,95 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P12" t="n">
         <v>3.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="Q12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W12" t="n">
         <v>6</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
       <c r="X12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2648,58 +2648,58 @@
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL12" t="n">
         <v>67</v>
       </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
       <c r="AM12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>10</v>
       </c>
       <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
         <v>81</v>
       </c>
-      <c r="AW12" t="n">
-        <v>126</v>
-      </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
@@ -2711,10 +2711,10 @@
         <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -2931,19 +2931,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
         <v>5.5</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -3161,22 +3161,22 @@
         <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
         <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
         <v>8.5</v>
@@ -3194,16 +3194,16 @@
         <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3242,10 +3242,10 @@
         <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
         <v>29</v>
@@ -3254,7 +3254,7 @@
         <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
         <v>251</v>
@@ -3304,28 +3304,28 @@
         <v>5.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
         <v>1.85</v>
@@ -3337,7 +3337,7 @@
         <v>2.65</v>
       </c>
       <c r="U16" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
         <v>1.85</v>
@@ -3346,10 +3346,10 @@
         <v>6.4</v>
       </c>
       <c r="X16" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Z16" t="n">
         <v>11.75</v>
@@ -3361,13 +3361,13 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD16" t="n">
         <v>6.9</v>
       </c>
       <c r="AE16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
         <v>75</v>
@@ -3376,22 +3376,22 @@
         <v>600</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>37</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK16" t="n">
         <v>120</v>
       </c>
       <c r="AL16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM16" t="n">
         <v>60</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>55</v>
       </c>
       <c r="AN16" t="n">
         <v>3.4</v>
@@ -3415,7 +3415,7 @@
         <v>2.65</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV16" t="n">
         <v>75</v>
@@ -3424,7 +3424,7 @@
         <v>51</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AY16" t="n">
         <v>35</v>
@@ -3480,7 +3480,7 @@
         <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
         <v>4.33</v>
@@ -3489,7 +3489,7 @@
         <v>2.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
         <v>4.75</v>
@@ -3501,16 +3501,16 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3519,13 +3519,13 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
         <v>8</v>
@@ -3543,7 +3543,7 @@
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3555,7 +3555,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
         <v>11</v>
@@ -3567,10 +3567,10 @@
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>G4ptafdJ</t>
+          <t>jXR8WyEE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,131 +3640,131 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="J18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L18" t="n">
         <v>2.88</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
+        <v>17</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W18" t="n">
         <v>13</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W18" t="n">
-        <v>9</v>
-      </c>
       <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
         <v>11</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AF18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM18" t="n">
         <v>21</v>
       </c>
-      <c r="AA18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
         <v>13</v>
       </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>12</v>
-      </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
@@ -3773,46 +3773,46 @@
         <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="AX18" t="n">
         <v>5</v>
       </c>
       <c r="AY18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>17</v>
       </c>
-      <c r="AZ18" t="n">
-        <v>23</v>
-      </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>j7MXdOaT</t>
+          <t>G4ptafdJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,41 +3822,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3865,127 +3865,127 @@
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
+        <v>9</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
         <v>17</v>
       </c>
-      <c r="X19" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>41</v>
-      </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>12</v>
       </c>
       <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY19" t="n">
         <v>17</v>
       </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM19" t="n">
+      <c r="AZ19" t="n">
         <v>23</v>
       </c>
-      <c r="AN19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>17</v>
-      </c>
       <c r="BA19" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BC19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8z1srGqg</t>
+          <t>j7MXdOaT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,170 +4004,170 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
         <v>2.1</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
+        <v>12</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W20" t="n">
+        <v>17</v>
+      </c>
+      <c r="X20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
         <v>8</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W20" t="n">
-        <v>13</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP20" t="n">
         <v>34</v>
       </c>
-      <c r="Y20" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="AQ20" t="n">
         <v>101</v>
       </c>
-      <c r="AA20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AR20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU20" t="n">
         <v>8</v>
       </c>
-      <c r="AE20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>11</v>
-      </c>
       <c r="AV20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
         <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AY20" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC20" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MVhYBgZu</t>
+          <t>MX1ZCF7m</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.4</v>
       </c>
-      <c r="H22" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="T22" t="n">
         <v>2.75</v>
       </c>
-      <c r="L22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="U22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W22" t="n">
+        <v>13</v>
+      </c>
+      <c r="X22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA22" t="n">
         <v>23</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W22" t="n">
-        <v>12</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA22" t="n">
+      <c r="BB22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD22" t="n">
         <v>81</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MX1ZCF7m</t>
+          <t>IDzwah6t</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,41 +4550,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.5</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>2.05</v>
+        <v>4.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4593,127 +4593,127 @@
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
         <v>15</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="n">
         <v>34</v>
       </c>
-      <c r="Y23" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC23" t="n">
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO23" t="n">
         <v>10</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AP23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU23" t="n">
         <v>8</v>
       </c>
-      <c r="AE23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>9</v>
-      </c>
       <c r="AV23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
         <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA23" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="BB23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IDzwah6t</t>
+          <t>z1FoSzGa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.83</v>
+        <v>21</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="I24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>21</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T24" t="n">
         <v>4</v>
       </c>
-      <c r="J24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="U24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W24" t="n">
+        <v>41</v>
+      </c>
+      <c r="X24" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>401</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>11</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8</v>
-      </c>
-      <c r="X24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AK24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
         <v>15</v>
       </c>
-      <c r="AA24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="n">
+      <c r="AO24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>501</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>401</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB24" t="n">
         <v>34</v>
       </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS24" t="n">
+      <c r="BC24" t="n">
         <v>126</v>
       </c>
-      <c r="AT24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>201</v>
-      </c>
       <c r="BD24" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>z1FoSzGa</t>
+          <t>0bDipEnC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA25" t="n">
         <v>21</v>
       </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>13</v>
       </c>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N25" t="n">
-        <v>19</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX25" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="AY25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>34</v>
       </c>
-      <c r="X25" t="n">
+      <c r="BA25" t="n">
         <v>81</v>
       </c>
-      <c r="Y25" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>351</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>501</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>401</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>10</v>
-      </c>
       <c r="BB25" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="BC25" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD25" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0bDipEnC</t>
+          <t>lpZEsxxi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="K26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1.95</v>
       </c>
-      <c r="L26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="R26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W26" t="n">
+        <v>11</v>
+      </c>
+      <c r="X26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
         <v>7</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W26" t="n">
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN26" t="n">
         <v>6</v>
       </c>
-      <c r="X26" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AO26" t="n">
         <v>21</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AP26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA26" t="n">
         <v>34</v>
       </c>
-      <c r="AC26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA26" t="n">
+      <c r="BB26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD26" t="n">
         <v>81</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lpZEsxxi</t>
+          <t>hvsLsK0f</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,170 +5278,170 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.9</v>
+        <v>1.65</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L27" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
+        <v>17</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W27" t="n">
+        <v>10</v>
+      </c>
+      <c r="X27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y27" t="n">
         <v>8.5</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W27" t="n">
-        <v>11</v>
-      </c>
-      <c r="X27" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>13</v>
       </c>
-      <c r="Z27" t="n">
-        <v>41</v>
-      </c>
       <c r="AA27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL27" t="n">
         <v>34</v>
       </c>
-      <c r="AB27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP27" t="n">
         <v>15</v>
       </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH27" t="n">
+      <c r="AQ27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU27" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ27" t="n">
+      <c r="AV27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA27" t="n">
         <v>67</v>
       </c>
-      <c r="AR27" t="n">
+      <c r="BB27" t="n">
         <v>81</v>
       </c>
-      <c r="AS27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>51</v>
-      </c>
       <c r="BC27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD27" t="n">
         <v>81</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QTfbG3sQ</t>
+          <t>xURoV1Yo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,179 +5460,179 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.45</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L28" t="n">
         <v>3.75</v>
       </c>
-      <c r="K28" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.42</v>
-      </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
+        <v>9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="n">
         <v>9.5</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP28" t="n">
         <v>23</v>
       </c>
-      <c r="Y28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA28" t="n">
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>29</v>
       </c>
-      <c r="AB28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>15.5</v>
-      </c>
       <c r="BA28" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="BB28" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="BC28" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="BD28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hvsLsK0f</t>
+          <t>jk98sTk5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,65 +5642,65 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="S29" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T29" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U29" t="n">
         <v>1.57</v>
@@ -5712,28 +5712,28 @@
         <v>10</v>
       </c>
       <c r="X29" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE29" t="n">
         <v>12</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
@@ -5742,43 +5742,43 @@
         <v>126</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>34</v>
       </c>
-      <c r="AM29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>23</v>
-      </c>
       <c r="AR29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU29" t="n">
         <v>7.5</v>
@@ -5790,19 +5790,19 @@
         <v>351</v>
       </c>
       <c r="AX29" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB29" t="n">
         <v>67</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>81</v>
       </c>
       <c r="BC29" t="n">
         <v>126</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xURoV1Yo</t>
+          <t>rcJWAQ0L</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,128 +5824,128 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K30" t="n">
         <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y30" t="n">
         <v>9</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W30" t="n">
-        <v>7</v>
-      </c>
-      <c r="X30" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB30" t="n">
         <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>15</v>
       </c>
-      <c r="AF30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>12</v>
-      </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="n">
         <v>41</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP30" t="n">
         <v>23</v>
@@ -5960,43 +5960,43 @@
         <v>201</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA30" t="n">
         <v>81</v>
       </c>
-      <c r="AX30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>51</v>
-      </c>
       <c r="BB30" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC30" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD30" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>jk98sTk5</t>
+          <t>M3CfFQUG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,718 +6006,172 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2.05</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>13</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R31" t="n">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="S31" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="T31" t="n">
-        <v>3.4</v>
+        <v>2.67</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W31" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="Y31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA31" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AC31" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AG31" t="n">
-        <v>126</v>
+        <v>800</v>
       </c>
       <c r="AH31" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AL31" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AS31" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.4</v>
+        <v>2.67</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV31" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AW31" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX31" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BB31" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="BC31" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="BD31" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>rcJWAQ0L</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Miramar</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N32" t="n">
-        <v>8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W32" t="n">
-        <v>6</v>
-      </c>
-      <c r="X32" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>M3CfFQUG</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Memphis</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>7</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W33" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>xOzFUlJ7</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>14:15</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Briton Ferry</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Aberystwyth</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N34" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W34" t="n">
-        <v>9</v>
-      </c>
-      <c r="X34" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>500</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>200</v>
-      </c>
-      <c r="BD34" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD31"/>
+  <dimension ref="A1:BD34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EJ4unbdE</t>
+          <t>n5Eg2hB4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,95 +728,95 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - PREMIER LEAGUE</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
         <v>26</v>
       </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -825,82 +825,82 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI2" t="n">
         <v>11</v>
       </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
         <v>151</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>n5Eg2hB4</t>
+          <t>vuBo4Eth</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,160 +920,160 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T3" t="n">
         <v>3.25</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>1.62</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL3" t="n">
         <v>15</v>
       </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AM3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU3" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX3" t="n">
         <v>10</v>
       </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AY3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>34</v>
       </c>
-      <c r="AN3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>26</v>
-      </c>
       <c r="BA3" t="n">
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dr2N9zoI</t>
+          <t>Gpn0zjke</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,173 +1092,173 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W4" t="n">
+        <v>15</v>
+      </c>
+      <c r="X4" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y4" t="n">
         <v>19</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL4" t="n">
         <v>13</v>
       </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AM4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY4" t="n">
         <v>19</v>
       </c>
-      <c r="AC4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1419,25 +1419,25 @@
         <v>41</v>
       </c>
       <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC5" t="n">
         <v>301</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>101</v>
       </c>
       <c r="BD5" t="n">
         <v>176</v>
@@ -1601,25 +1601,25 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
         <v>501</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YFePBifU</t>
+          <t>CQxNvgYh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,77 +1638,77 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
@@ -1720,88 +1720,88 @@
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
         <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
         <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>26</v>
       </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>101</v>
       </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
+      <c r="BA7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
         <v>501</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>151</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4z4UzMX5</t>
+          <t>xSCeghmn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
         <v>8.5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>17</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13</v>
       </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
         <v>5.5</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AX8" t="n">
         <v>21</v>
       </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
         <v>81</v>
       </c>
-      <c r="AR8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>41</v>
-      </c>
       <c r="BB8" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sl5AWkMr</t>
+          <t>zHmSVfun</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,158 +2002,158 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>13</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>11</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AM9" t="n">
         <v>29</v>
       </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AN9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX9" t="n">
         <v>7</v>
       </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AY9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
         <v>21</v>
@@ -2162,10 +2162,10 @@
         <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4fr2UO6t</t>
+          <t>4z4UzMX5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RAAL La Louviere</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>RFC Liege</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.4</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
         <v>8.5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AJ10" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
       </c>
       <c r="AN10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
         <v>4</v>
       </c>
-      <c r="AO10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>81</v>
-      </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
         <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YJ7nRvLG</t>
+          <t>Sl5AWkMr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Royale Union SG</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.67</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
         <v>7</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
         <v>5</v>
       </c>
-      <c r="X11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AO11" t="n">
         <v>17</v>
       </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
         <v>126</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Wp6dbeX7</t>
+          <t>4fr2UO6t</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,170 +2548,170 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>RAAL La Louviere</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>RFC Liege</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
         <v>4</v>
       </c>
-      <c r="I12" t="n">
-        <v>8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
       </c>
       <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
         <v>34</v>
       </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
         <v>21</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AY12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
         <v>81</v>
       </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
+      <c r="BB12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
         <v>81</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>351</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jkB9cVAF</t>
+          <t>YJ7nRvLG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2735,27 +2735,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J13" t="n">
         <v>2.4</v>
@@ -2767,13 +2767,13 @@
         <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
         <v>2.63</v>
@@ -2800,10 +2800,10 @@
         <v>5</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
@@ -2815,13 +2815,13 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>81</v>
@@ -2830,19 +2830,19 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
         <v>51</v>
@@ -2869,31 +2869,31 @@
         <v>2.38</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>81</v>
       </c>
       <c r="AW13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>126</v>
       </c>
-      <c r="AX13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
       <c r="BA13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC13" t="n">
         <v>126</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>351</v>
       </c>
       <c r="BD13" t="n">
         <v>126</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>YgbeZ0b3</t>
+          <t>Wp6dbeX7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
         <v>6</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>15</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
       </c>
       <c r="AD14" t="n">
         <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="n">
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM14" t="n">
         <v>67</v>
       </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
       <c r="AN14" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AO14" t="n">
         <v>7.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
         <v>8</v>
       </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>501</v>
-      </c>
       <c r="AX14" t="n">
-        <v>7.5</v>
+        <v>41</v>
       </c>
       <c r="AY14" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2iiidd3E</t>
+          <t>82kuNvA8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="L15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="n">
         <v>4.33</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AX15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB15" t="n">
         <v>351</v>
       </c>
-      <c r="AH15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>101</v>
-      </c>
       <c r="BC15" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ULBpYl1C</t>
+          <t>4YEu2wYr</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
         <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.4</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>51</v>
+        <v>7.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.3</v>
+        <v>41</v>
       </c>
       <c r="AY16" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="BA16" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BB16" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="BC16" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W6sFgYy8</t>
+          <t>jkB9cVAF</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3463,102 +3463,102 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.4</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.05</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -3573,64 +3573,64 @@
         <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA17" t="n">
         <v>151</v>
       </c>
-      <c r="AT17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>81</v>
-      </c>
       <c r="BB17" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jXR8WyEE</t>
+          <t>YgbeZ0b3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,170 +3640,170 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.63</v>
+        <v>1.53</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="K18" t="n">
         <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
       </c>
       <c r="AC18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
         <v>19</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AI18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO18" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL18" t="n">
+      <c r="AP18" t="n">
         <v>17</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AQ18" t="n">
         <v>21</v>
       </c>
-      <c r="AN18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>41</v>
-      </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
         <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>301</v>
+        <v>7.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G4ptafdJ</t>
+          <t>2iiidd3E</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3827,165 +3827,165 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gyor</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
         <v>2.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>2.03</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X19" t="n">
         <v>9</v>
-      </c>
-      <c r="X19" t="n">
-        <v>11</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AI19" t="n">
         <v>17</v>
       </c>
       <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
         <v>12</v>
       </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AP19" t="n">
         <v>23</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY19" t="n">
         <v>29</v>
       </c>
-      <c r="AN19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BC19" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>j7MXdOaT</t>
+          <t>ULBpYl1C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,170 +4004,170 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
-        <v>1.53</v>
+        <v>5.9</v>
       </c>
       <c r="J20" t="n">
-        <v>5.5</v>
+        <v>2.18</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>12</v>
+        <v>7.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="T20" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W20" t="n">
-        <v>17</v>
+        <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>29</v>
+        <v>7.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>7.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>51</v>
+        <v>11.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>7.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH20" t="n">
         <v>15</v>
       </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH20" t="n">
+      <c r="AI20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO20" t="n">
         <v>8</v>
       </c>
-      <c r="AI20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>29</v>
-      </c>
       <c r="AP20" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="AR20" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AS20" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AW20" t="n">
-        <v>51</v>
+        <v>7.3</v>
       </c>
       <c r="AX20" t="n">
-        <v>3.6</v>
+        <v>35</v>
       </c>
       <c r="AY20" t="n">
-        <v>7.5</v>
+        <v>37</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="BA20" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="BB20" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t2EltfE5</t>
+          <t>W6sFgYy8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4191,174 +4191,174 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2.05</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="R21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.91</v>
       </c>
-      <c r="L21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="V21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W21" t="n">
         <v>6.5</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W21" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
       <c r="Z21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
         <v>19</v>
       </c>
-      <c r="AA21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>21</v>
-      </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>29</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
       <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC21" t="n">
         <v>81</v>
       </c>
-      <c r="AS21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV21" t="n">
+      <c r="BD21" t="n">
         <v>81</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MX1ZCF7m</t>
+          <t>jXR8WyEE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,170 +4368,170 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.25</v>
+        <v>2.63</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L22" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="T22" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U22" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>2.63</v>
       </c>
       <c r="W22" t="n">
         <v>13</v>
       </c>
       <c r="X22" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA22" t="n">
         <v>19</v>
       </c>
-      <c r="Z22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>51</v>
-      </c>
       <c r="AB22" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>10</v>
       </c>
-      <c r="AD22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AK22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM22" t="n">
         <v>21</v>
       </c>
-      <c r="AF22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL22" t="n">
+      <c r="AN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>13</v>
       </c>
-      <c r="AM22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>34</v>
-      </c>
       <c r="AP22" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AS22" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="AY22" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IDzwah6t</t>
+          <t>G4ptafdJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,41 +4550,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Gyor</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K23" t="n">
         <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4599,10 +4599,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>1.36</v>
@@ -4611,73 +4611,73 @@
         <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="n">
         <v>9</v>
       </c>
-      <c r="Y23" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP23" t="n">
         <v>21</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR23" t="n">
         <v>51</v>
@@ -4689,40 +4689,40 @@
         <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>81</v>
+        <v>5.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA23" t="n">
         <v>67</v>
       </c>
       <c r="BB23" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC23" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>z1FoSzGa</t>
+          <t>t2EltfE5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA24" t="n">
         <v>21</v>
       </c>
-      <c r="H24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J24" t="n">
-        <v>15</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
         <v>21</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P24" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T24" t="n">
-        <v>4</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W24" t="n">
-        <v>41</v>
-      </c>
-      <c r="X24" t="n">
+      <c r="AF24" t="n">
         <v>81</v>
       </c>
-      <c r="Y24" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>401</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF24" t="n">
+      <c r="AG24" t="n">
         <v>101</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>501</v>
       </c>
       <c r="AH24" t="n">
         <v>8.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AT24" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AV24" t="n">
         <v>81</v>
       </c>
       <c r="AW24" t="n">
-        <v>501</v>
+        <v>5.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.1</v>
+        <v>23</v>
       </c>
       <c r="AY24" t="n">
-        <v>4.75</v>
+        <v>41</v>
       </c>
       <c r="AZ24" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="BA24" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="BB24" t="n">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="BC24" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD24" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0bDipEnC</t>
+          <t>zJYLzfA5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L25" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
+        <v>15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X25" t="n">
         <v>7</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6</v>
-      </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
         <v>9</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP25" t="n">
         <v>17</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS25" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="AU25" t="n">
         <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>51</v>
+        <v>8.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>5.5</v>
+        <v>34</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="BA25" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB25" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lpZEsxxi</t>
+          <t>0K8fkgPb</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,47 +5096,47 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Carlos Mannucci</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>1.48</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>5.75</v>
       </c>
       <c r="J26" t="n">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -5145,130 +5145,130 @@
         <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
         <v>11</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AD26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE26" t="n">
         <v>21</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AF26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH26" t="n">
         <v>13</v>
       </c>
-      <c r="Z26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH26" t="n">
+      <c r="AI26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO26" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO26" t="n">
+      <c r="AP26" t="n">
         <v>21</v>
       </c>
-      <c r="AP26" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
         <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW26" t="n">
-        <v>81</v>
+        <v>7.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AY26" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AZ26" t="n">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="BA26" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="BB26" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BC26" t="n">
         <v>151</v>
       </c>
       <c r="BD26" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hvsLsK0f</t>
+          <t>8WWTYXvI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Cesar Vallejo</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE27" t="n">
         <v>17</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W27" t="n">
-        <v>10</v>
-      </c>
-      <c r="X27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y27" t="n">
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH27" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>17</v>
-      </c>
       <c r="AI27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL27" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>34</v>
       </c>
       <c r="AM27" t="n">
         <v>34</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO27" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA27" t="n">
         <v>81</v>
       </c>
-      <c r="AT27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>67</v>
-      </c>
       <c r="BB27" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC27" t="n">
         <v>126</v>
       </c>
       <c r="BD27" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>xURoV1Yo</t>
+          <t>MX1ZCF7m</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,143 +5460,143 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="S28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W28" t="n">
+        <v>13</v>
+      </c>
+      <c r="X28" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI28" t="n">
         <v>7</v>
       </c>
-      <c r="X28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC28" t="n">
+      <c r="AJ28" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
+      <c r="AK28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS28" t="n">
         <v>301</v>
       </c>
-      <c r="AH28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>201</v>
-      </c>
       <c r="AT28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU28" t="n">
         <v>8.5</v>
@@ -5605,25 +5605,25 @@
         <v>51</v>
       </c>
       <c r="AW28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC28" t="n">
         <v>81</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>201</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jk98sTk5</t>
+          <t>IDzwah6t</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,128 +5642,128 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P29" t="n">
         <v>3.75</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
-        <v>13</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q29" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T29" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA29" t="n">
         <v>15</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
         <v>7</v>
       </c>
       <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH29" t="n">
         <v>12</v>
       </c>
-      <c r="AF29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH29" t="n">
+      <c r="AI29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>13</v>
       </c>
-      <c r="AI29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>12</v>
-      </c>
       <c r="AK29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM29" t="n">
         <v>34</v>
       </c>
-      <c r="AL29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>29</v>
-      </c>
       <c r="AN29" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP29" t="n">
         <v>19</v>
@@ -5775,37 +5775,37 @@
         <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>351</v>
+        <v>6</v>
       </c>
       <c r="AX29" t="n">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BA29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB29" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BC29" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD29" t="n">
         <v>81</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rcJWAQ0L</t>
+          <t>z1FoSzGa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.91</v>
+        <v>21</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>1.13</v>
       </c>
       <c r="J30" t="n">
-        <v>2.63</v>
+        <v>15</v>
       </c>
       <c r="K30" t="n">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N30" t="n">
+        <v>21</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W30" t="n">
+        <v>41</v>
+      </c>
+      <c r="X30" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>401</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>501</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>401</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX30" t="n">
         <v>4.75</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N30" t="n">
-        <v>8</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W30" t="n">
-        <v>6</v>
-      </c>
-      <c r="X30" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB30" t="n">
+      <c r="AY30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA30" t="n">
         <v>34</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>81</v>
       </c>
       <c r="BB30" t="n">
         <v>126</v>
       </c>
       <c r="BC30" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BD30" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M3CfFQUG</t>
+          <t>0bDipEnC</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,172 +6006,718 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Orange County SC</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L31" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
         <v>7</v>
       </c>
       <c r="O31" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="R31" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="S31" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="T31" t="n">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X31" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC31" t="n">
         <v>7</v>
       </c>
       <c r="AD31" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI31" t="n">
         <v>17</v>
       </c>
-      <c r="AF31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>20</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AV31" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AW31" t="n">
-        <v>51</v>
+        <v>5.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>5.6</v>
+        <v>21</v>
       </c>
       <c r="AY31" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AZ31" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="BA31" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BB31" t="n">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="BC31" t="n">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="BD31" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>lpZEsxxi</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W32" t="n">
+        <v>11</v>
+      </c>
+      <c r="X32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>jk98sTk5</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>13</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W33" t="n">
+        <v>10</v>
+      </c>
+      <c r="X33" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>rcJWAQ0L</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W34" t="n">
+        <v>6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD34" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -813,10 +813,10 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -846,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
@@ -879,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>34</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
         <v>101</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
@@ -953,28 +953,28 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>15</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA3" t="n">
         <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -1010,7 +1010,7 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI3" t="n">
         <v>7.5</v>
@@ -1046,7 +1046,7 @@
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1055,10 +1055,10 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
         <v>19</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
@@ -1120,13 +1120,13 @@
         <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1135,22 +1135,22 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1162,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1183,13 +1183,13 @@
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
         <v>13</v>
@@ -1216,7 +1216,7 @@
         <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1228,7 +1228,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1246,10 +1246,10 @@
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA4" t="n">
         <v>101</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>126</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1344,16 +1344,16 @@
         <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
         <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
@@ -1374,13 +1374,13 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1401,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1413,7 +1413,7 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1422,19 +1422,19 @@
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
         <v>501</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sl5AWkMr</t>
+          <t>0r7Dv4Yt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Royale Union SG</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>1.33</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.75</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="U7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA7" t="n">
         <v>13</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>34</v>
       </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AK7" t="n">
         <v>151</v>
       </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
-      </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BB7" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC7" t="n">
         <v>126</v>
       </c>
-      <c r="BC7" t="n">
-        <v>501</v>
-      </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4fr2UO6t</t>
+          <t>Sl5AWkMr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAAL La Louviere</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RFC Liege</t>
+          <t>Royale Union SG</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.25</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1881,118 +1881,118 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
         <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD8" t="n">
         <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YJ7nRvLG</t>
+          <t>4fr2UO6t</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2007,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>RAAL La Louviere</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>RFC Liege</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.7</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="R9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY9" t="n">
         <v>29</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV9" t="n">
+      <c r="AZ9" t="n">
         <v>81</v>
       </c>
-      <c r="AW9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>126</v>
-      </c>
       <c r="BA9" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>451</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wp6dbeX7</t>
+          <t>YJ7nRvLG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,65 +2184,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>8.5</v>
+        <v>6.25</v>
       </c>
       <c r="J10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L10" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
         <v>2.25</v>
@@ -2251,31 +2251,31 @@
         <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>81</v>
@@ -2284,43 +2284,43 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AL10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
         <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
         <v>10</v>
@@ -2329,34 +2329,34 @@
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA10" t="n">
         <v>201</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>82kuNvA8</t>
+          <t>Wp6dbeX7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,88 +2376,88 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>1.38</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P11" t="n">
         <v>3.4</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W11" t="n">
         <v>6</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7</v>
-      </c>
       <c r="X11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>13</v>
       </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>34</v>
       </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>51</v>
-      </c>
       <c r="AC11" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
         <v>81</v>
@@ -2466,64 +2466,64 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
         <v>10</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.33</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB11" t="n">
         <v>351</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4YEu2wYr</t>
+          <t>82kuNvA8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.53</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.1</v>
       </c>
-      <c r="L12" t="n">
+      <c r="U12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W12" t="n">
         <v>7</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
       <c r="X12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD12" t="n">
         <v>6</v>
       </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL12" t="n">
         <v>29</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
       <c r="AM12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX12" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jkB9cVAF</t>
+          <t>4YEu2wYr</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5</v>
+      </c>
+      <c r="X13" t="n">
         <v>6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>7</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="n">
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>23</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>17</v>
-      </c>
       <c r="AK13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
         <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AX13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ13" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BA13" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BB13" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GfVLtH3R</t>
+          <t>bceKo43m</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,95 +2912,95 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
         <v>3.25</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
         <v>8.5</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
         <v>13</v>
       </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -3009,46 +3009,46 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -3057,34 +3057,34 @@
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
         <v>151</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W6sFgYy8</t>
+          <t>lST7t9R7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="J15" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
         <v>10</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
       </c>
       <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>10</v>
       </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AK15" t="n">
         <v>23</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO15" t="n">
         <v>15</v>
       </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>9</v>
-      </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jXR8WyEE</t>
+          <t>2VHk5h48</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
         <v>17</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W16" t="n">
-        <v>13</v>
-      </c>
-      <c r="X16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AX16" t="n">
         <v>19</v>
       </c>
-      <c r="AB16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>12</v>
-      </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t2EltfE5</t>
+          <t>tMGg4CJE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,65 +3458,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
         <v>2.75</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Q17" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U17" t="n">
         <v>2.25</v>
@@ -3528,25 +3528,25 @@
         <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3555,82 +3555,82 @@
         <v>81</v>
       </c>
       <c r="AG17" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AY17" t="n">
         <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bXiO6uVF</t>
+          <t>K6dGnpls</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
+        <v>9</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD18" t="n">
         <v>8</v>
       </c>
-      <c r="X18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>900</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP18" t="n">
         <v>17</v>
       </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
         <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>zJYLzfA5</t>
+          <t>hKfOpOIg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,47 +3822,47 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
@@ -3871,121 +3871,121 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP19" t="n">
         <v>19</v>
       </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH19" t="n">
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX19" t="n">
         <v>19</v>
       </c>
-      <c r="AI19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS19" t="n">
+      <c r="AY19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC19" t="n">
         <v>126</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>151</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0K8fkgPb</t>
+          <t>jkB9cVAF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,155 +4004,155 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Carlos Mannucci</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V20" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
       </c>
       <c r="AF20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR20" t="n">
         <v>67</v>
       </c>
-      <c r="AG20" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="AS20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX20" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>34</v>
       </c>
       <c r="AY20" t="n">
         <v>41</v>
@@ -4164,19 +4164,19 @@
         <v>151</v>
       </c>
       <c r="BB20" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8WWTYXvI</t>
+          <t>x4xTphR9</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,164 +4186,164 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cesar Vallejo</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
         <v>2.88</v>
       </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>900</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY21" t="n">
         <v>23</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AZ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA21" t="n">
         <v>67</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>81</v>
       </c>
       <c r="BB21" t="n">
         <v>201</v>
@@ -4352,13 +4352,13 @@
         <v>126</v>
       </c>
       <c r="BD21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MX1ZCF7m</t>
+          <t>GfVLtH3R</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,41 +4368,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -4417,130 +4417,130 @@
         <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X22" t="n">
         <v>13</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
         <v>26</v>
       </c>
-      <c r="Y22" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>51</v>
-      </c>
       <c r="AA22" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>10</v>
       </c>
-      <c r="AD22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>29</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS22" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB22" t="n">
         <v>151</v>
       </c>
       <c r="BC22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IDzwah6t</t>
+          <t>W6sFgYy8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,41 +4550,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4593,124 +4593,124 @@
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.88</v>
       </c>
-      <c r="R23" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
         <v>15</v>
       </c>
       <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX23" t="n">
         <v>26</v>
       </c>
-      <c r="AC23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="n">
+      <c r="AY23" t="n">
         <v>34</v>
       </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS23" t="n">
+      <c r="AZ23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA23" t="n">
         <v>126</v>
       </c>
-      <c r="AT23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>81</v>
-      </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EoRxUdom</t>
+          <t>jXR8WyEE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>17</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P24" t="n">
         <v>5</v>
       </c>
-      <c r="J24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD24" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AE24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO24" t="n">
         <v>13</v>
       </c>
-      <c r="AA24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AP24" t="n">
         <v>19</v>
       </c>
-      <c r="AF24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
         <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX24" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AY24" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
         <v>101</v>
       </c>
-      <c r="BA24" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB24" t="n">
+      <c r="BC24" t="n">
         <v>301</v>
       </c>
-      <c r="BC24" t="n">
-        <v>126</v>
-      </c>
       <c r="BD24" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0bDipEnC</t>
+          <t>t2EltfE5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4919,105 +4919,105 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="P25" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T25" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI25" t="n">
         <v>19</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>21</v>
       </c>
       <c r="AJ25" t="n">
         <v>15</v>
@@ -5032,49 +5032,49 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
         <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jk98sTk5</t>
+          <t>bXiO6uVF</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.91</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="V26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8</v>
+      </c>
+      <c r="X26" t="n">
         <v>13</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>10</v>
       </c>
-      <c r="Y26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB26" t="n">
+      <c r="AK26" t="n">
         <v>23</v>
       </c>
-      <c r="AC26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>41</v>
-      </c>
       <c r="AL26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM26" t="n">
         <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS26" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>26</v>
       </c>
       <c r="AZ26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA26" t="n">
         <v>81</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rcJWAQ0L</t>
+          <t>zJYLzfA5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,173 +5278,1629 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L27" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD27" t="n">
         <v>9</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE27" t="n">
         <v>19</v>
       </c>
       <c r="AF27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>1250</v>
+        <v>301</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>21</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>15</v>
-      </c>
       <c r="AK27" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS27" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU27" t="n">
         <v>9</v>
       </c>
       <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0K8fkgPb</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Carlos Mannucci</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Alianza Atl.</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK28" t="n">
         <v>67</v>
       </c>
-      <c r="AW27" t="n">
+      <c r="AL28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>8WWTYXvI</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Grau</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cesar Vallejo</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MX1ZCF7m</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W30" t="n">
+        <v>13</v>
+      </c>
+      <c r="X30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EoRxUdom</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W31" t="n">
         <v>6</v>
       </c>
-      <c r="AX27" t="n">
+      <c r="X31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI31" t="n">
         <v>23</v>
       </c>
-      <c r="AY27" t="n">
+      <c r="AJ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>34</v>
       </c>
-      <c r="AZ27" t="n">
+      <c r="AR31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0bDipEnC</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Din. Bucuresti</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>jk98sTk5</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>13</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA33" t="n">
         <v>81</v>
       </c>
-      <c r="BA27" t="n">
+      <c r="BB33" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>rcJWAQ0L</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W34" t="n">
+        <v>6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA34" t="n">
         <v>126</v>
       </c>
-      <c r="BB27" t="n">
+      <c r="BB34" t="n">
         <v>301</v>
       </c>
-      <c r="BC27" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>51</v>
+      <c r="BC34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CxX8W0T0</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N35" t="n">
+        <v>15</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W35" t="n">
+        <v>10</v>
+      </c>
+      <c r="X35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD35"/>
+  <dimension ref="A1:BD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.7</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.8</v>
-      </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -795,19 +795,19 @@
         <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -828,16 +828,16 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>9</v>
       </c>
-      <c r="AI2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -846,10 +846,10 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -861,7 +861,7 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.25</v>
@@ -873,19 +873,19 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>34</v>
       </c>
       <c r="BA2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
         <v>101</v>
@@ -959,22 +959,22 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>15</v>
@@ -992,7 +992,7 @@
         <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -1010,7 +1010,7 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>7.5</v>
@@ -1046,7 +1046,7 @@
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1153,22 +1153,22 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>13</v>
@@ -1177,7 +1177,7 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1192,10 +1192,10 @@
         <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
@@ -1219,13 +1219,13 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1237,19 +1237,19 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1308,7 +1308,7 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1335,16 +1335,16 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1377,25 +1377,25 @@
         <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1672,7 +1672,7 @@
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1681,16 +1681,16 @@
         <v>8.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
         <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,16 +1699,16 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1726,13 +1726,13 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>29</v>
       </c>
       <c r="AF7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1750,10 +1750,10 @@
         <v>151</v>
       </c>
       <c r="AL7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="n">
         <v>3</v>
@@ -1771,7 +1771,7 @@
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
         <v>2.75</v>
@@ -1792,7 +1792,7 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA7" t="n">
         <v>351</v>
@@ -1908,7 +1908,7 @@
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1929,7 +1929,7 @@
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>17</v>
@@ -1962,7 +1962,7 @@
         <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
         <v>4.33</v>
@@ -1983,7 +1983,7 @@
         <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4fr2UO6t</t>
+          <t>QTpF9Ckq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RAAL La Louviere</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RFC Liege</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
         <v>23</v>
       </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
         <v>201</v>
       </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
         <v>6.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YJ7nRvLG</t>
+          <t>nqZN7jKe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>6.25</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
         <v>67</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AW10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
         <v>251</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>501</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2409,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2573,7 +2573,7 @@
         <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2615,7 +2615,7 @@
         <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2749,10 +2749,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
         <v>7</v>
@@ -2791,10 +2791,10 @@
         <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W13" t="n">
         <v>5</v>
@@ -2806,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>15</v>
@@ -2815,13 +2815,13 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>101</v>
@@ -2836,19 +2836,19 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>81</v>
       </c>
       <c r="AL13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
         <v>7.5</v>
@@ -2857,13 +2857,13 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
         <v>2.5</v>
@@ -2881,10 +2881,10 @@
         <v>41</v>
       </c>
       <c r="AY13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA13" t="n">
         <v>251</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
         <v>2.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
         <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2967,10 +2967,10 @@
         <v>2.15</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
         <v>1.73</v>
@@ -3006,7 +3006,7 @@
         <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
         <v>201</v>
@@ -3018,7 +3018,7 @@
         <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
         <v>51</v>
@@ -3033,7 +3033,7 @@
         <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
@@ -3048,7 +3048,7 @@
         <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3194,7 +3194,7 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3203,7 +3203,7 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>21</v>
@@ -3221,7 +3221,7 @@
         <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
         <v>67</v>
@@ -3239,16 +3239,16 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
         <v>67</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>jkB9cVAF</t>
+          <t>x4xTphR9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4014,31 +4014,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.73</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="J20" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -4047,124 +4047,124 @@
         <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
         <v>5.5</v>
       </c>
-      <c r="X20" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AO20" t="n">
         <v>21</v>
       </c>
-      <c r="AF20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS20" t="n">
         <v>251</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AY20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="n">
         <v>126</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x4xTphR9</t>
+          <t>GfVLtH3R</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2.05</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
         <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
         <v>34</v>
       </c>
-      <c r="AB21" t="n">
-        <v>41</v>
-      </c>
       <c r="AC21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
         <v>8</v>
       </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF21" t="n">
+      <c r="AI21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
         <v>67</v>
       </c>
-      <c r="AG21" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>101</v>
-      </c>
       <c r="AS21" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
         <v>67</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GfVLtH3R</t>
+          <t>jXR8WyEE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,77 +4368,77 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
         <v>10</v>
@@ -4447,31 +4447,31 @@
         <v>26</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF22" t="n">
         <v>34</v>
       </c>
-      <c r="AC22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AG22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI22" t="n">
         <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4480,67 +4480,67 @@
         <v>26</v>
       </c>
       <c r="AL22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM22" t="n">
         <v>21</v>
       </c>
-      <c r="AM22" t="n">
-        <v>29</v>
-      </c>
       <c r="AN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
         <v>4.75</v>
       </c>
-      <c r="AO22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W6sFgYy8</t>
+          <t>bXiO6uVF</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,65 +4550,65 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.3</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>11</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
         <v>1.91</v>
@@ -4617,28 +4617,28 @@
         <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10</v>
-      </c>
       <c r="AD23" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4647,82 +4647,82 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>351</v>
+        <v>900</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
         <v>23</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>51</v>
-      </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY23" t="n">
         <v>26</v>
       </c>
-      <c r="AY23" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jXR8WyEE</t>
+          <t>zJYLzfA5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I24" t="n">
-        <v>2.38</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>17</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T24" t="n">
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
         <v>3.5</v>
       </c>
-      <c r="U24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>13</v>
-      </c>
-      <c r="X24" t="n">
+      <c r="AO24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP24" t="n">
         <v>17</v>
       </c>
-      <c r="Y24" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF24" t="n">
+      <c r="AQ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX24" t="n">
         <v>34</v>
       </c>
-      <c r="AG24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>12</v>
-      </c>
       <c r="AY24" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ24" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA24" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB24" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC24" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD24" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t2EltfE5</t>
+          <t>0K8fkgPb</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,116 +4914,116 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>Carlos Mannucci</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T25" t="n">
         <v>2.75</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.62</v>
       </c>
-      <c r="T25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>10</v>
       </c>
-      <c r="Z25" t="n">
-        <v>19</v>
-      </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>81</v>
       </c>
       <c r="AG25" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
@@ -5032,61 +5032,61 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AU25" t="n">
         <v>9.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AY25" t="n">
         <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA25" t="n">
         <v>151</v>
       </c>
       <c r="BB25" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC25" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bXiO6uVF</t>
+          <t>8WWTYXvI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,95 +5096,95 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Cesar Vallejo</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="H26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J26" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L26" t="n">
         <v>3.6</v>
       </c>
-      <c r="K26" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P26" t="n">
         <v>3.25</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="Q26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W26" t="n">
         <v>7.5</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W26" t="n">
-        <v>8</v>
-      </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
         <v>11</v>
       </c>
-      <c r="Z26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5193,19 +5193,19 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>900</v>
+        <v>301</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
         <v>10</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
         <v>23</v>
@@ -5214,37 +5214,37 @@
         <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX26" t="n">
         <v>17</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>26</v>
@@ -5259,16 +5259,16 @@
         <v>201</v>
       </c>
       <c r="BC26" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD26" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>zJYLzfA5</t>
+          <t>EoRxUdom</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="H27" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="K27" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.67</v>
       </c>
-      <c r="R27" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S27" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U27" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W27" t="n">
+        <v>6</v>
+      </c>
+      <c r="X27" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>7</v>
       </c>
       <c r="Y27" t="n">
         <v>8.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>19</v>
       </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG27" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP27" t="n">
         <v>21</v>
       </c>
-      <c r="AK27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ27" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AR27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU27" t="n">
         <v>9</v>
       </c>
       <c r="AV27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW27" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
         <v>41</v>
       </c>
       <c r="AZ27" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA27" t="n">
         <v>126</v>
       </c>
-      <c r="BA27" t="n">
-        <v>151</v>
-      </c>
       <c r="BB27" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0K8fkgPb</t>
+          <t>jk98sTk5</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,179 +5460,179 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Carlos Mannucci</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="n">
         <v>2.25</v>
       </c>
       <c r="L28" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
+        <v>13</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X28" t="n">
         <v>10</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W28" t="n">
-        <v>6</v>
-      </c>
-      <c r="X28" t="n">
-        <v>6.5</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO28" t="n">
         <v>10</v>
       </c>
-      <c r="AA28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="AP28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>34</v>
       </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA28" t="n">
         <v>81</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="BB28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC28" t="n">
         <v>351</v>
       </c>
-      <c r="AH28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>151</v>
-      </c>
       <c r="BD28" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8WWTYXvI</t>
+          <t>rcJWAQ0L</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,128 +5642,128 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cesar Vallejo</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W29" t="n">
+        <v>6</v>
+      </c>
+      <c r="X29" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC29" t="n">
         <v>7.5</v>
       </c>
-      <c r="X29" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>11</v>
-      </c>
       <c r="AD29" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE29" t="n">
         <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG29" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
@@ -5775,46 +5775,46 @@
         <v>67</v>
       </c>
       <c r="AS29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA29" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB29" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC29" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD29" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MX1ZCF7m</t>
+          <t>CxX8W0T0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,1082 +5824,172 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>15</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R30" t="n">
         <v>2.2</v>
       </c>
-      <c r="L30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="S30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W30" t="n">
         <v>10</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W30" t="n">
-        <v>13</v>
-      </c>
       <c r="X30" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AB30" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
         <v>7.5</v>
       </c>
       <c r="AE30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP30" t="n">
         <v>19</v>
       </c>
-      <c r="AF30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI30" t="n">
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU30" t="n">
         <v>7</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>21</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA30" t="n">
         <v>51</v>
       </c>
       <c r="BB30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC30" t="n">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="BD30" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>EoRxUdom</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Gil Vicente</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Boavista</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W31" t="n">
-        <v>6</v>
-      </c>
-      <c r="X31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>0bDipEnC</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Din. Bucuresti</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>UTA Arad</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>7</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X32" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>jk98sTk5</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>St. Gallen</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sion</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N33" t="n">
-        <v>13</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X33" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>rcJWAQ0L</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Miramar</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N34" t="n">
-        <v>8</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W34" t="n">
-        <v>6</v>
-      </c>
-      <c r="X34" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>CxX8W0T0</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>FC Cincinnati</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N35" t="n">
-        <v>15</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W35" t="n">
-        <v>10</v>
-      </c>
-      <c r="X35" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD35" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD30"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
@@ -765,16 +765,16 @@
         <v>2.63</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -795,7 +795,7 @@
         <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>19</v>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -891,7 +891,7 @@
         <v>101</v>
       </c>
       <c r="BC2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX3" t="n">
         <v>8</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1159,22 +1159,22 @@
         <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1189,7 +1189,7 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
@@ -1222,7 +1222,7 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS4" t="n">
         <v>126</v>
@@ -1231,28 +1231,28 @@
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA4" t="n">
         <v>101</v>
       </c>
-      <c r="BA4" t="n">
-        <v>126</v>
-      </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
@@ -1672,7 +1672,7 @@
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1699,13 +1699,13 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
@@ -1726,7 +1726,7 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
         <v>29</v>
@@ -1738,7 +1738,7 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>51</v>
@@ -1750,16 +1750,16 @@
         <v>151</v>
       </c>
       <c r="AL7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN7" t="n">
         <v>3</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1792,7 +1792,7 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA7" t="n">
         <v>351</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
@@ -2314,7 +2314,7 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
@@ -2326,7 +2326,7 @@
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
         <v>4.75</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wp6dbeX7</t>
+          <t>82kuNvA8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,88 +2376,88 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.38</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>9.5</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2.88</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD11" t="n">
         <v>6</v>
       </c>
-      <c r="X11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>81</v>
@@ -2466,64 +2466,64 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
         <v>41</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>67</v>
       </c>
-      <c r="AM11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>21</v>
-      </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>9</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
         <v>351</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>82kuNvA8</t>
+          <t>4YEu2wYr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.63</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
         <v>6</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>13</v>
-      </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="n">
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>26</v>
       </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>67</v>
-      </c>
       <c r="AR12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB12" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4YEu2wYr</t>
+          <t>bceKo43m</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
         <v>7.5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AE13" t="n">
         <v>15</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AF13" t="n">
         <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>101</v>
       </c>
       <c r="AG13" t="n">
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
         <v>7.5</v>
       </c>
       <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>23</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>26</v>
-      </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
         <v>201</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
         <v>151</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bceKo43m</t>
+          <t>lST7t9R7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,88 +2922,88 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A. Italiano</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>2.63</v>
       </c>
       <c r="J14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V14" t="n">
         <v>2.1</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="W14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X14" t="n">
         <v>13</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8</v>
-      </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3012,79 +3012,79 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>41</v>
       </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
         <v>7.5</v>
       </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY14" t="n">
         <v>23</v>
       </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lST7t9R7</t>
+          <t>2VHk5h48</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,31 +3104,31 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3155,37 +3155,37 @@
         <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
         <v>26</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
@@ -3194,37 +3194,37 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
         <v>26</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
         <v>21</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
         <v>151</v>
@@ -3239,19 +3239,19 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2VHk5h48</t>
+          <t>tMGg4CJE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,157 +3286,157 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.75</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>26</v>
       </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY16" t="n">
         <v>41</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AZ16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA16" t="n">
         <v>201</v>
       </c>
-      <c r="AH16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>81</v>
-      </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tMGg4CJE</t>
+          <t>K6dGnpls</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,169 +3468,169 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.1</v>
       </c>
-      <c r="L17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="W17" t="n">
         <v>9</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X17" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
         <v>15</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
         <v>34</v>
       </c>
-      <c r="AC17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>51</v>
-      </c>
       <c r="AM17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
         <v>26</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA17" t="n">
         <v>81</v>
       </c>
-      <c r="AW17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ17" t="n">
+      <c r="BB17" t="n">
         <v>151</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>351</v>
       </c>
       <c r="BC17" t="n">
         <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>K6dGnpls</t>
+          <t>hKfOpOIg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,37 +3650,37 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -3689,49 +3689,49 @@
         <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V18" t="n">
         <v>2.2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.1</v>
       </c>
       <c r="W18" t="n">
         <v>9</v>
       </c>
       <c r="X18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y18" t="n">
         <v>9</v>
       </c>
-      <c r="Y18" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
@@ -3740,43 +3740,43 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>34</v>
       </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>26</v>
-      </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
         <v>7.5</v>
@@ -3785,19 +3785,19 @@
         <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY18" t="n">
         <v>23</v>
       </c>
-      <c r="AY18" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA18" t="n">
         <v>67</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>81</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hKfOpOIg</t>
+          <t>x4xTphR9</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3827,174 +3827,174 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
         <v>9</v>
       </c>
       <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX19" t="n">
         <v>11</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>19</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA19" t="n">
         <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
         <v>126</v>
       </c>
       <c r="BD19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>x4xTphR9</t>
+          <t>GfVLtH3R</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
         <v>34</v>
       </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
       <c r="AC20" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
         <v>67</v>
       </c>
-      <c r="AG20" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>101</v>
-      </c>
       <c r="AS20" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY20" t="n">
         <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
         <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD20" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GfVLtH3R</t>
+          <t>bXiO6uVF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4191,105 +4191,105 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.8</v>
       </c>
-      <c r="V21" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>251</v>
+        <v>900</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
         <v>10</v>
@@ -4301,52 +4301,52 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN21" t="n">
         <v>4.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>51</v>
       </c>
       <c r="AR21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
         <v>67</v>
       </c>
-      <c r="AS21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
       <c r="AW21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX21" t="n">
         <v>15</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
         <v>51</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>jXR8WyEE</t>
+          <t>zJYLzfA5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>1.53</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="K22" t="n">
         <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB22" t="n">
         <v>23</v>
       </c>
       <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE22" t="n">
         <v>17</v>
       </c>
-      <c r="AD22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>11</v>
-      </c>
       <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY22" t="n">
         <v>34</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AZ22" t="n">
         <v>101</v>
       </c>
-      <c r="AH22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS22" t="n">
+      <c r="BA22" t="n">
         <v>101</v>
       </c>
-      <c r="AT22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>51</v>
-      </c>
       <c r="BB22" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC22" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD22" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bXiO6uVF</t>
+          <t>0K8fkgPb</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Carlos Mannucci</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO23" t="n">
         <v>7.5</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W23" t="n">
-        <v>8</v>
-      </c>
-      <c r="X23" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC23" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD23" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>zJYLzfA5</t>
+          <t>8WWTYXvI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,55 +4742,55 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Cesar Vallejo</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="H24" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>2.63</v>
       </c>
       <c r="J24" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
         <v>1.83</v>
@@ -4802,25 +4802,25 @@
         <v>7.5</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4829,73 +4829,73 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX24" t="n">
         <v>17</v>
       </c>
-      <c r="AI24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
+      <c r="AY24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC24" t="n">
         <v>126</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>151</v>
       </c>
       <c r="BD24" t="n">
         <v>151</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0K8fkgPb</t>
+          <t>EoRxUdom</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,116 +4914,116 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Carlos Mannucci</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.1</v>
       </c>
-      <c r="K25" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="W25" t="n">
         <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI25" t="n">
         <v>23</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>29</v>
       </c>
       <c r="AJ25" t="n">
         <v>17</v>
       </c>
       <c r="AK25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
@@ -5032,61 +5032,61 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY25" t="n">
         <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BA25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8WWTYXvI</t>
+          <t>CC9254Or</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cesar Vallejo</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>1.22</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.63</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="K26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N26" t="n">
+        <v>17</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U26" t="n">
         <v>2.1</v>
       </c>
-      <c r="L26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>11</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Y26" t="n">
         <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
       </c>
       <c r="AC26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
         <v>11</v>
       </c>
-      <c r="AD26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ26" t="n">
+      <c r="AX26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY26" t="n">
         <v>41</v>
       </c>
-      <c r="AR26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ26" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BA26" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB26" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC26" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EoRxUdom</t>
+          <t>CxX8W0T0</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,718 +5278,172 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K27" t="n">
         <v>2.38</v>
       </c>
-      <c r="K27" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L27" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
+        <v>15</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W27" t="n">
+        <v>10</v>
+      </c>
+      <c r="X27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W27" t="n">
-        <v>6</v>
-      </c>
-      <c r="X27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>41</v>
       </c>
-      <c r="AM27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP27" t="n">
+      <c r="AR27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY27" t="n">
         <v>21</v>
       </c>
-      <c r="AQ27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ27" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB27" t="n">
         <v>126</v>
       </c>
-      <c r="BB27" t="n">
-        <v>301</v>
-      </c>
       <c r="BC27" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD27" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>jk98sTk5</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>St. Gallen</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sion</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N28" t="n">
-        <v>13</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>rcJWAQ0L</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Miramar</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>8</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W29" t="n">
-        <v>6</v>
-      </c>
-      <c r="X29" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>CxX8W0T0</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>FC Cincinnati</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>15</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W30" t="n">
-        <v>10</v>
-      </c>
-      <c r="X30" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD30" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -795,16 +795,16 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X2" t="n">
         <v>5</v>
       </c>
-      <c r="X2" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -816,16 +816,16 @@
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
@@ -855,26 +855,26 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.75</v>
       </c>
       <c r="AU2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="n">
         <v>11</v>
       </c>
-      <c r="AV2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>10</v>
-      </c>
       <c r="AX2" t="n">
         <v>51</v>
       </c>
@@ -882,10 +882,10 @@
         <v>51</v>
       </c>
       <c r="AZ2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BA2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -894,13 +894,13 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QTpF9Ckq</t>
+          <t>EoBHwOmm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,143 +910,143 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
       </c>
       <c r="AG3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
         <v>12</v>
       </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>41</v>
       </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>401</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1055,16 +1055,16 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nqZN7jKe</t>
+          <t>QTpF9Ckq</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,31 +1102,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1135,43 +1135,43 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
         <v>7.5</v>
       </c>
-      <c r="X4" t="n">
-        <v>12</v>
-      </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1180,79 +1180,79 @@
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP4" t="n">
         <v>23</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AQ4" t="n">
         <v>34</v>
       </c>
-      <c r="AM4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bceKo43m</t>
+          <t>nqZN7jKe</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,143 +1274,143 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A. Italiano</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.2</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>29</v>
       </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>51</v>
-      </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1419,19 +1419,19 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
         <v>26</v>
       </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
@@ -1440,13 +1440,13 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lST7t9R7</t>
+          <t>bceKo43m</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,55 +1466,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
       </c>
       <c r="U6" t="n">
         <v>1.73</v>
@@ -1523,112 +1523,112 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
         <v>13</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX6" t="n">
         <v>26</v>
       </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AY6" t="n">
         <v>29</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AZ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
         <v>201</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2VHk5h48</t>
+          <t>lST7t9R7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,55 +1648,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>2.63</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.85</v>
       </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
@@ -1705,100 +1705,100 @@
         <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
         <v>9</v>
       </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12</v>
-      </c>
       <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK7" t="n">
         <v>21</v>
       </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tMGg4CJE</t>
+          <t>2VHk5h48</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,121 +1830,121 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.25</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>9</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>29</v>
@@ -1953,34 +1953,34 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
         <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>K6dGnpls</t>
+          <t>tMGg4CJE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,169 +2012,169 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.2</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
         <v>3.4</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AO9" t="n">
         <v>9</v>
       </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY9" t="n">
         <v>41</v>
       </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AZ9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA9" t="n">
         <v>151</v>
       </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hKfOpOIg</t>
+          <t>K6dGnpls</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,37 +2194,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -2239,112 +2239,112 @@
         <v>2.15</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
         <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK10" t="n">
         <v>34</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>23</v>
       </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x4xTphR9</t>
+          <t>hKfOpOIg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,174 +2371,174 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.4</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.05</v>
-      </c>
       <c r="J11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
         <v>4.33</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
       <c r="Q11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R11" t="n">
         <v>2.15</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
         <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
         <v>13</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
         <v>41</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>34</v>
       </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
         <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
         <v>5.5</v>
       </c>
-      <c r="AO11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4</v>
-      </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
         <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GfVLtH3R</t>
+          <t>x4xTphR9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,59 +2548,59 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2609,118 +2609,118 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.8</v>
       </c>
-      <c r="V12" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
         <v>8.5</v>
       </c>
-      <c r="X12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>29</v>
       </c>
       <c r="AM12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
         <v>251</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>151</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bXiO6uVF</t>
+          <t>tb0KeWK6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.35</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN13" t="n">
         <v>3.75</v>
       </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="AO13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
         <v>7.5</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX13" t="n">
         <v>26</v>
       </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
+      <c r="AY13" t="n">
         <v>29</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AZ13" t="n">
         <v>81</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>51</v>
       </c>
       <c r="BA13" t="n">
         <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EoRxUdom</t>
+          <t>xQgTgAkJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,77 +2912,77 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L14" t="n">
         <v>5</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P14" t="n">
         <v>5.5</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
@@ -2991,28 +2991,28 @@
         <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH14" t="n">
         <v>34</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -3021,70 +3021,70 @@
         <v>51</v>
       </c>
       <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
         <v>41</v>
       </c>
-      <c r="AL14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>451</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP14" t="n">
+      <c r="AW14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX14" t="n">
         <v>23</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>29</v>
-      </c>
       <c r="AY14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB14" t="n">
         <v>126</v>
       </c>
-      <c r="BB14" t="n">
+      <c r="BC14" t="n">
         <v>301</v>
       </c>
-      <c r="BC14" t="n">
-        <v>126</v>
-      </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CC9254Or</t>
+          <t>faoX4JaS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,167 +3094,167 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.62</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
       </c>
       <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
         <v>15</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
         <v>12</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
         <v>26</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
         <v>81</v>
       </c>
-      <c r="AG15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>251</v>
-      </c>
       <c r="BB15" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CxX8W0T0</t>
+          <t>CC9254Or</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,354 +3276,900 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>1.62</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L16" t="n">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>13</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AR16" t="n">
         <v>41</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
       </c>
       <c r="AS16" t="n">
         <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY16" t="n">
         <v>41</v>
       </c>
-      <c r="AW16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BB16" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>CxX8W0T0</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>px8kStln</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Atlanta Utd</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>21</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W18" t="n">
+        <v>19</v>
+      </c>
+      <c r="X18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>zXLK2moB</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>02/11/2024</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Charleston</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Pittsburgh</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G19" t="n">
         <v>1.91</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>3.05</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>3.95</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J19" t="n">
         <v>2.47</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K19" t="n">
         <v>2.07</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L19" t="n">
         <v>4.5</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M19" t="n">
         <v>1.08</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N19" t="n">
         <v>6.6</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O19" t="n">
         <v>1.34</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P19" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q19" t="n">
         <v>2.05</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R19" t="n">
         <v>1.72</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S19" t="n">
         <v>1.42</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T19" t="n">
         <v>2.67</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U19" t="n">
         <v>1.8</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V19" t="n">
         <v>1.91</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W19" t="n">
         <v>6.9</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X19" t="n">
         <v>9.25</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y19" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z19" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA19" t="n">
         <v>15.5</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB19" t="n">
         <v>26</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC19" t="n">
         <v>6.6</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD19" t="n">
         <v>6.1</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE19" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF19" t="n">
         <v>70</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG19" t="n">
         <v>10.25</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH19" t="n">
         <v>22</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI19" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ19" t="n">
         <v>65</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK19" t="n">
         <v>40</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL19" t="n">
         <v>45</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM19" t="n">
         <v>600</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN19" t="n">
         <v>3.85</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO19" t="n">
         <v>9.75</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP19" t="n">
         <v>17</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ19" t="n">
         <v>35</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR19" t="n">
         <v>60</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS19" t="n">
         <v>200</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT19" t="n">
         <v>2.67</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU19" t="n">
         <v>6.9</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV19" t="n">
         <v>60</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW19" t="n">
         <v>5.9</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX19" t="n">
         <v>24</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY19" t="n">
         <v>29</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ19" t="n">
         <v>150</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA19" t="n">
         <v>175</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB19" t="n">
         <v>350</v>
       </c>
-      <c r="BC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD17" t="n">
+      <c r="BC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E1iZ7rNj</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tampa Bay</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -944,13 +944,13 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1058,7 +1058,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1135,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1165,19 +1165,19 @@
         <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1186,13 +1186,13 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
@@ -1213,7 +1213,7 @@
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1237,13 +1237,13 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>101</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,31 +1335,31 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1383,16 +1383,16 @@
         <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1404,7 +1404,7 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
@@ -1413,7 +1413,7 @@
         <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bceKo43m</t>
+          <t>lpyhquj5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A. Italiano</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>5.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>23</v>
       </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>51</v>
-      </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
         <v>81</v>
       </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lST7t9R7</t>
+          <t>tb0KeWK6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,143 +1638,143 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.63</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.1</v>
       </c>
-      <c r="L7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
         <v>21</v>
       </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>23</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1783,34 +1783,34 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2VHk5h48</t>
+          <t>xQgTgAkJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,113 +1820,113 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="K8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.25</v>
       </c>
-      <c r="L8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="W8" t="n">
         <v>11</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK8" t="n">
         <v>34</v>
@@ -1935,64 +1935,64 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tMGg4CJE</t>
+          <t>faoX4JaS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
         <v>6</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
         <v>12</v>
       </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AJ9" t="n">
         <v>34</v>
       </c>
-      <c r="AC9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>67</v>
-      </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>251</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
         <v>201</v>
       </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>351</v>
-      </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>K6dGnpls</t>
+          <t>CC9254Or</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
         <v>1.62</v>
       </c>
-      <c r="H10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.2</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AM10" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hKfOpOIg</t>
+          <t>px8kStln</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
+        <v>23</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>19</v>
+      </c>
+      <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
         <v>11</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
       </c>
       <c r="AH11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>19</v>
       </c>
-      <c r="AI11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>34</v>
-      </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
         <v>34</v>
       </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
+      <c r="AW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA11" t="n">
         <v>41</v>
       </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="BB11" t="n">
         <v>67</v>
       </c>
-      <c r="BB11" t="n">
-        <v>126</v>
-      </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>x4xTphR9</t>
+          <t>zXLK2moB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>3.95</v>
       </c>
       <c r="J12" t="n">
-        <v>4.33</v>
+        <v>2.47</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="U12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.91</v>
       </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="X12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP12" t="n">
         <v>17</v>
       </c>
-      <c r="Y12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AQ12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY12" t="n">
         <v>29</v>
       </c>
-      <c r="AM12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tb0KeWK6</t>
+          <t>E1iZ7rNj</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2735,174 +2735,174 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Tampa Bay</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="J13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.1</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4</v>
+        <v>2.77</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG13" t="n">
         <v>8.5</v>
       </c>
-      <c r="X13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AH13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
         <v>21</v>
       </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AL13" t="n">
         <v>29</v>
       </c>
-      <c r="AI13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
       <c r="AM13" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>4.65</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>2.77</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW13" t="n">
-        <v>7</v>
+        <v>4.55</v>
       </c>
       <c r="AX13" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BC13" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>xQgTgAkJ</t>
+          <t>2s6ae5wo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,1264 +2912,172 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K14" t="n">
-        <v>2.6</v>
+        <v>2.27</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>19</v>
+        <v>8.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>2.6</v>
+        <v>2.07</v>
       </c>
       <c r="S14" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="T14" t="n">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>21</v>
+        <v>8.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AM14" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AR14" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AS14" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AZ14" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="BC14" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>faoX4JaS</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Sp. Luqueno</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sportivo Trinidense</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CC9254Or</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L16" t="n">
-        <v>10</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>15</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W16" t="n">
-        <v>8</v>
-      </c>
-      <c r="X16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CxX8W0T0</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>FC Cincinnati</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>px8kStln</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Atlanta Utd</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Inter Miami</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>21</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W18" t="n">
-        <v>19</v>
-      </c>
-      <c r="X18" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>zXLK2moB</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Charleston</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Pittsburgh</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X19" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>E1iZ7rNj</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Detroit</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Tampa Bay</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X20" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0r7Dv4Yt</t>
+          <t>EoBHwOmm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,169 +738,169 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.29</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>13</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
         <v>5.5</v>
       </c>
-      <c r="X2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AX2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY2" t="n">
         <v>34</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AZ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA2" t="n">
         <v>126</v>
       </c>
-      <c r="AG2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>401</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>401</v>
-      </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EoBHwOmm</t>
+          <t>QTpF9Ckq</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,143 +910,143 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.05</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.05</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>17</v>
       </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>41</v>
-      </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1055,16 +1055,16 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QTpF9Ckq</t>
+          <t>nqZN7jKe</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,31 +1102,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1141,118 +1141,118 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>11</v>
       </c>
-      <c r="AH4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>51</v>
       </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nqZN7jKe</t>
+          <t>lpyhquj5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,155 +1274,155 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.67</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP5" t="n">
         <v>34</v>
       </c>
-      <c r="AM5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN5" t="n">
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AX5" t="n">
         <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1434,7 +1434,7 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lpyhquj5</t>
+          <t>tb0KeWK6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.1</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI6" t="n">
         <v>29</v>
       </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AJ6" t="n">
         <v>17</v>
       </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>23</v>
-      </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
         <v>101</v>
       </c>
-      <c r="AS6" t="n">
-        <v>301</v>
-      </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tb0KeWK6</t>
+          <t>xQgTgAkJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,148 +1648,148 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.25</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
         <v>21</v>
       </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>17</v>
       </c>
-      <c r="AH7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>51</v>
       </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
         <v>3.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY7" t="n">
         <v>26</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
       </c>
       <c r="AZ7" t="n">
         <v>81</v>
@@ -1798,10 +1798,10 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xQgTgAkJ</t>
+          <t>faoX4JaS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,174 +1825,174 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
         <v>19</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W8" t="n">
-        <v>11</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>34</v>
       </c>
       <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
         <v>34</v>
       </c>
-      <c r="AM8" t="n">
-        <v>126</v>
-      </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>faoX4JaS</t>
+          <t>CC9254Or</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>1.22</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="K9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.1</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI9" t="n">
         <v>51</v>
       </c>
-      <c r="AG9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR9" t="n">
         <v>34</v>
       </c>
-      <c r="AK9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>251</v>
       </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CC9254Or</t>
+          <t>px8kStln</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W10" t="n">
+        <v>19</v>
+      </c>
+      <c r="X10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN10" t="n">
         <v>6</v>
       </c>
-      <c r="I10" t="n">
-        <v>12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L10" t="n">
-        <v>10</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="AO10" t="n">
         <v>17</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU10" t="n">
         <v>7</v>
       </c>
-      <c r="AA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AV10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY10" t="n">
         <v>15</v>
       </c>
-      <c r="AD10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AZ10" t="n">
         <v>26</v>
       </c>
-      <c r="AF10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL10" t="n">
+      <c r="BA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB10" t="n">
         <v>67</v>
       </c>
-      <c r="AM10" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>351</v>
-      </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>px8kStln</t>
+          <t>zXLK2moB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>1.82</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>6.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>2.72</v>
       </c>
       <c r="U11" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>2.75</v>
+        <v>1.88</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>8.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>6.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>9.25</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AS11" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>2.72</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.5</v>
+        <v>25</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="BB11" t="n">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>176</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zXLK2moB</t>
+          <t>E1iZ7rNj</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Tampa Bay</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.95</v>
+        <v>2.65</v>
       </c>
       <c r="J12" t="n">
-        <v>2.47</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.72</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
+        <v>8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC12" t="n">
         <v>6.9</v>
-      </c>
-      <c r="X12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>6.6</v>
       </c>
       <c r="AD12" t="n">
         <v>6.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.25</v>
+        <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>8.75</v>
       </c>
       <c r="AI12" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>9.75</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="AM12" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.75</v>
+        <v>13.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AR12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>60</v>
       </c>
-      <c r="AS12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>150</v>
-      </c>
       <c r="BA12" t="n">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="BB12" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E1iZ7rNj</t>
+          <t>2s6ae5wo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,55 +2740,55 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tampa Bay</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>2.55</v>
+        <v>4.85</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="S13" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="T13" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="U13" t="n">
         <v>1.72</v>
@@ -2797,100 +2797,100 @@
         <v>2</v>
       </c>
       <c r="W13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
         <v>8.25</v>
       </c>
-      <c r="X13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
       <c r="AD13" t="n">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>60</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.5</v>
+        <v>400</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.5</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AM13" t="n">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.65</v>
+        <v>3.55</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AQ13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV13" t="n">
         <v>60</v>
       </c>
-      <c r="AR13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU13" t="n">
+      <c r="AW13" t="n">
         <v>6.7</v>
       </c>
-      <c r="AV13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.55</v>
-      </c>
       <c r="AX13" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="AY13" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AZ13" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="BA13" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2s6ae5wo</t>
+          <t>rJ03D4aT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,157 +2922,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Louisville City</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Oakland Roots</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>5.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="K14" t="n">
         <v>2.27</v>
       </c>
       <c r="L14" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y14" t="n">
         <v>8.25</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
         <v>7.7</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AD14" t="n">
         <v>8</v>
       </c>
-      <c r="Y14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU14" t="n">
         <v>8.25</v>
       </c>
-      <c r="AD14" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AV14" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="AX14" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AY14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ14" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="BA14" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="BB14" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,13 +894,13 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QTpF9Ckq</t>
+          <t>lpyhquj5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,143 +910,143 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.5</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI3" t="n">
         <v>11</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
         <v>23</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
       <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
         <v>41</v>
       </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1055,22 +1055,22 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nqZN7jKe</t>
+          <t>tb0KeWK6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V4" t="n">
         <v>2.05</v>
       </c>
-      <c r="L4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="W4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
         <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
         <v>8</v>
       </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lpyhquj5</t>
+          <t>xQgTgAkJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.75</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>1.57</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>2.25</v>
       </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W5" t="n">
+        <v>10</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
         <v>7.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AP5" t="n">
         <v>15</v>
       </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AQ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR5" t="n">
         <v>34</v>
       </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AS5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
         <v>41</v>
       </c>
-      <c r="AC5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tb0KeWK6</t>
+          <t>faoX4JaS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,174 +1461,174 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.1</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
       </c>
       <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>41</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
         <v>151</v>
       </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
         <v>26</v>
       </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xQgTgAkJ</t>
+          <t>CC9254Or</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,59 +1638,59 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>19</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S7" t="n">
         <v>1.25</v>
@@ -1699,118 +1699,118 @@
         <v>3.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
         <v>3.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY7" t="n">
         <v>41</v>
       </c>
-      <c r="AW7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>faoX4JaS</t>
+          <t>YRcB3rge</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,59 +1820,59 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1881,13 +1881,13 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1899,13 +1899,13 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1917,10 +1917,10 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
@@ -1935,7 +1935,7 @@
         <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
         <v>4.33</v>
@@ -1953,13 +1953,13 @@
         <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
         <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,10 +1968,10 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CC9254Or</t>
+          <t>px8kStln</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>23</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.22</v>
       </c>
-      <c r="H9" t="n">
+      <c r="T9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W9" t="n">
+        <v>19</v>
+      </c>
+      <c r="X9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN9" t="n">
         <v>6</v>
       </c>
-      <c r="I9" t="n">
-        <v>11</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>9.5</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>17</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AY9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB9" t="n">
         <v>67</v>
       </c>
-      <c r="AG9" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA9" t="n">
+      <c r="BC9" t="n">
         <v>201</v>
       </c>
-      <c r="BB9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>px8kStln</t>
+          <t>zXLK2moB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>1.88</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.6</v>
       </c>
-      <c r="L10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>21</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
-        <v>2.75</v>
+        <v>1.82</v>
       </c>
       <c r="W10" t="n">
-        <v>19</v>
+        <v>6.1</v>
       </c>
       <c r="X10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI10" t="n">
         <v>23</v>
       </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AJ10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY10" t="n">
         <v>29</v>
       </c>
-      <c r="AG10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
+      <c r="AZ10" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC10" t="n">
         <v>51</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="BD10" t="n">
         <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zXLK2moB</t>
+          <t>E1iZ7rNj</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,157 +2376,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Tampa Bay</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.82</v>
+        <v>2.62</v>
       </c>
       <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU11" t="n">
         <v>6.7</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AV11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX11" t="n">
         <v>14</v>
       </c>
-      <c r="AK11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>60</v>
       </c>
-      <c r="AS11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>150</v>
-      </c>
       <c r="BA11" t="n">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="BB11" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E1iZ7rNj</t>
+          <t>2s6ae5wo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tampa Bay</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="I12" t="n">
-        <v>2.65</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>2.07</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>6.9</v>
+        <v>8.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.78</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y12" t="n">
         <v>8</v>
       </c>
-      <c r="X12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>11.25</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.9</v>
+        <v>8.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG12" t="n">
         <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.75</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.75</v>
+        <v>16.5</v>
       </c>
       <c r="AK12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY12" t="n">
         <v>32</v>
       </c>
-      <c r="AL12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="BA12" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2s6ae5wo</t>
+          <t>rJ03D4aT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,344 +2740,162 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Louisville City</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Oakland Roots</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.85</v>
+        <v>5.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y13" t="n">
         <v>8.25</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD13" t="n">
         <v>8</v>
       </c>
-      <c r="Y13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH13" t="n">
         <v>15</v>
       </c>
-      <c r="AF13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16</v>
-      </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL13" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AR13" t="n">
         <v>55</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="AU13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW13" t="n">
         <v>7.3</v>
       </c>
-      <c r="AV13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AX13" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AY13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ13" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="BA13" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="BB13" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>rJ03D4aT</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Oakland Roots</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -798,16 +798,16 @@
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -816,10 +816,10 @@
         <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -861,7 +861,7 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.38</v>
@@ -876,7 +876,7 @@
         <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -885,7 +885,7 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>301</v>
@@ -947,16 +947,16 @@
         <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1147,43 +1147,43 @@
         <v>2.15</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1192,34 +1192,34 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
@@ -1228,7 +1228,7 @@
         <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
@@ -1237,13 +1237,13 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY4" t="n">
         <v>26</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>81</v>
@@ -1255,7 +1255,7 @@
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1296,7 +1296,7 @@
         <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
         <v>5.5</v>
@@ -1308,7 +1308,7 @@
         <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1505,10 +1505,10 @@
         <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1517,10 +1517,10 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1532,16 +1532,16 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
         <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1553,19 +1553,19 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
@@ -1589,7 +1589,7 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CC9254Or</t>
+          <t>YRcB3rge</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
         <v>11</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>17</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
         <v>29</v>
       </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AZ7" t="n">
         <v>51</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="BA7" t="n">
         <v>81</v>
       </c>
-      <c r="AM7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>201</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YRcB3rge</t>
+          <t>px8kStln</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>23</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V8" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
         <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH8" t="n">
         <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
       </c>
       <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB8" t="n">
         <v>67</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="BC8" t="n">
         <v>201</v>
       </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>px8kStln</t>
+          <t>zXLK2moB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>1.88</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.81</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.6</v>
       </c>
-      <c r="L9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="U9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI9" t="n">
         <v>23</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W9" t="n">
-        <v>19</v>
-      </c>
-      <c r="X9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AJ9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY9" t="n">
         <v>29</v>
       </c>
-      <c r="AG9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="AZ9" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zXLK2moB</t>
+          <t>E1iZ7rNj</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Tampa Bay</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.88</v>
+        <v>2.77</v>
       </c>
       <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.1</v>
       </c>
-      <c r="I10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6.4</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AE10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO10" t="n">
         <v>15</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA10" t="n">
         <v>80</v>
       </c>
-      <c r="AG10" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="BB10" t="n">
         <v>250</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>350</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E1iZ7rNj</t>
+          <t>2s6ae5wo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,157 +2376,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tampa Bay</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>4.05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.52</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>2.07</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="L11" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.78</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W11" t="n">
-        <v>8.75</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>30</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AJ11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>22</v>
       </c>
-      <c r="AB11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>60</v>
-      </c>
       <c r="AR11" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AS11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="AV11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.55</v>
+        <v>6.8</v>
       </c>
       <c r="AX11" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AZ11" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="BA11" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="BB11" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2s6ae5wo</t>
+          <t>rJ03D4aT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,344 +2558,162 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Louisville City</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Oakland Roots</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="H12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="J12" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L12" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y12" t="n">
         <v>8.25</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD12" t="n">
         <v>8</v>
       </c>
-      <c r="Z12" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU12" t="n">
         <v>8.25</v>
       </c>
-      <c r="AD12" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AV12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB12" t="n">
         <v>500</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>400</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>rJ03D4aT</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Oakland Roots</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,34 +929,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
@@ -965,28 +965,28 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>29</v>
@@ -1010,34 +1010,34 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>101</v>
@@ -1046,7 +1046,7 @@
         <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
         <v>15</v>
@@ -1070,7 +1070,7 @@
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1135,16 +1135,16 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1308,7 +1308,7 @@
         <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1359,7 +1359,7 @@
         <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
         <v>9</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>faoX4JaS</t>
+          <t>23oFHDsQ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,143 +1456,143 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>U.N.A.M.- Pumas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.05</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
         <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1601,10 +1601,10 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>26</v>
@@ -1616,19 +1616,19 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YRcB3rge</t>
+          <t>nyNoCi5m</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>6.25</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
         <v>9</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>34</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
         <v>301</v>
       </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>201</v>
-      </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>px8kStln</t>
+          <t>MVISbHe2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Alebrijes Oaxaca</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="K8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>23</v>
+        <v>14.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="R8" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="U8" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>2.02</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>8.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>10.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
         <v>9.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>6.3</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="AR8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="AS8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>201</v>
-      </c>
       <c r="BD8" t="n">
-        <v>176</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>zXLK2moB</t>
+          <t>lIKK0wRk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Zacatecas Mineros</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>2.87</v>
       </c>
       <c r="J9" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T9" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="U9" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="W9" t="n">
-        <v>6.1</v>
+        <v>8.25</v>
       </c>
       <c r="X9" t="n">
-        <v>8.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="AH9" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL9" t="n">
         <v>23</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>40</v>
-      </c>
       <c r="AM9" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AR9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AS9" t="n">
         <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AV9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="AX9" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="BA9" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="BB9" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E1iZ7rNj</t>
+          <t>faoX4JaS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,162 +2189,162 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tampa Bay</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.87</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.8</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2s6ae5wo</t>
+          <t>YRcB3rge</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,167 +2366,167 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Louisville City</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>4.05</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.07</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>7.7</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.25</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.3</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rJ03D4aT</t>
+          <t>px8kStln</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,172 +2548,900 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Oakland Roots</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.47</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.8</v>
+        <v>1.95</v>
       </c>
       <c r="J12" t="n">
-        <v>2.02</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.27</v>
+        <v>2.63</v>
       </c>
       <c r="L12" t="n">
-        <v>5.8</v>
+        <v>2.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>7.7</v>
+        <v>23</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="R12" t="n">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.82</v>
+        <v>4.33</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="X12" t="n">
-        <v>6.7</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.7</v>
+        <v>26</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>800</v>
+        <v>67</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
       </c>
       <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>vuZrw6o9</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>E1iZ7rNj</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tampa Bay</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB14" t="n">
         <v>35</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AC14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL14" t="n">
         <v>19</v>
       </c>
-      <c r="AK12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2s6ae5wo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Louisville City</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>North Carolina</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV15" t="n">
         <v>65</v>
       </c>
-      <c r="AM12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="AW15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>rJ03D4aT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Oakland Roots</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X16" t="n">
         <v>7</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="Y16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP16" t="n">
         <v>18</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="AQ16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS16" t="n">
         <v>250</v>
       </c>
-      <c r="AT12" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV12" t="n">
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
         <v>80</v>
       </c>
-      <c r="AW12" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ12" t="n">
+      <c r="AW16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA16" t="n">
         <v>250</v>
       </c>
-      <c r="BA12" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB12" t="n">
+      <c r="BB16" t="n">
         <v>500</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC16" t="n">
         <v>51</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD16" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1708,13 +1708,13 @@
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1738,7 +1738,7 @@
         <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1750,7 +1750,7 @@
         <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1786,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1798,7 +1798,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2s6ae5wo</t>
+          <t>rJ03D4aT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,344 +2012,162 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Louisville City</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Oakland Roots</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
         <v>10.75</v>
       </c>
       <c r="AA9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AE9" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AG9" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
         <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW9" t="n">
         <v>7</v>
       </c>
-      <c r="AP9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="AX9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>200</v>
       </c>
-      <c r="AT9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>175</v>
-      </c>
       <c r="BA9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>rJ03D4aT</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Oakland Roots</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lpyhquj5</t>
+          <t>23oFHDsQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>U.N.A.M.- Pumas</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
         <v>13</v>
       </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
         <v>29</v>
       </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>41</v>
       </c>
-      <c r="AC2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
         <v>5.5</v>
       </c>
-      <c r="AE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23oFHDsQ</t>
+          <t>nyNoCi5m</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,31 +920,31 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>U.N.A.M.- Pumas</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.1</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -971,73 +971,73 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>10</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19</v>
-      </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>19</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1049,28 +1049,28 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nyNoCi5m</t>
+          <t>MVISbHe2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Alebrijes Oaxaca</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.42</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>2.47</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AA4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP4" t="n">
         <v>13</v>
       </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AQ4" t="n">
         <v>15</v>
       </c>
-      <c r="AI4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AR4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MVISbHe2</t>
+          <t>lIKK0wRk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,154 +1284,154 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Alebrijes Oaxaca</t>
+          <t>Zacatecas Mineros</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>2.95</v>
       </c>
       <c r="J5" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.85</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.45</v>
-      </c>
       <c r="R5" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>3.7</v>
+        <v>2.57</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC5" t="n">
         <v>10.25</v>
       </c>
-      <c r="AA5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>17</v>
-      </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>45</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AR5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV5" t="n">
         <v>60</v>
       </c>
-      <c r="AM5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AW5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX5" t="n">
         <v>16.5</v>
       </c>
-      <c r="AR5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>32</v>
-      </c>
       <c r="AY5" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="BA5" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="BB5" t="n">
         <v>300</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lIKK0wRk</t>
+          <t>YRcB3rge</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tepatitlan de Morelos</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Zacatecas Mineros</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1490,133 +1490,133 @@
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
         <v>9</v>
       </c>
-      <c r="Z6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>10</v>
-      </c>
       <c r="AI6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YRcB3rge</t>
+          <t>vuZrw6o9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.25</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
         <v>21</v>
       </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
         <v>15</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
       </c>
       <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR7" t="n">
         <v>41</v>
       </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
         <v>41</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>67</v>
       </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vuZrw6o9</t>
+          <t>rJ03D4aT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,354 +1820,172 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Oakland Roots</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>10.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO8" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AZ8" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="BA8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>401</v>
-      </c>
       <c r="BD8" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>rJ03D4aT</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Oakland Roots</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +747,55 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
@@ -804,16 +804,16 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
         <v>19</v>
       </c>
-      <c r="AA2" t="n">
-        <v>17</v>
-      </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,19 +822,19 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -846,13 +846,13 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -873,13 +873,13 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -959,22 +959,22 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1016,10 +1016,10 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1028,43 +1028,43 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="L4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="O4" t="n">
         <v>1.19</v>
@@ -1141,16 +1141,16 @@
         <v>3.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R4" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="S4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T4" t="n">
-        <v>3.9</v>
+        <v>3.98</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1159,31 +1159,31 @@
         <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
         <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
@@ -1192,19 +1192,19 @@
         <v>350</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
         <v>50</v>
@@ -1213,13 +1213,13 @@
         <v>3.45</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AR4" t="n">
         <v>32</v>
@@ -1228,19 +1228,19 @@
         <v>120</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY4" t="n">
         <v>32</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="M5" t="n">
         <v>8.300000000000001</v>
@@ -1329,10 +1329,10 @@
         <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U5" t="n">
         <v>1.65</v>
@@ -1341,25 +1341,25 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
         <v>8.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AB5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD5" t="n">
         <v>6.3</v>
@@ -1374,43 +1374,43 @@
         <v>400</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>6.8</v>
@@ -1419,22 +1419,22 @@
         <v>60</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AX5" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BA5" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BB5" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YRcB3rge</t>
+          <t>vuZrw6o9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,537 +1456,173 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.25</v>
       </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
         <v>7</v>
       </c>
-      <c r="X6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
         <v>21</v>
       </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
       </c>
       <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
         <v>41</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY6" t="n">
         <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>vuZrw6o9</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Minnesota United</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Real Salt Lake</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB7" t="n">
         <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>rJ03D4aT</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Oakland Roots</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -762,19 +762,19 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
         <v>2.05</v>
@@ -798,7 +798,7 @@
         <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
@@ -879,10 +879,10 @@
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
@@ -953,16 +953,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -980,13 +980,13 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -1001,22 +1001,22 @@
         <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>81</v>
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1067,10 +1067,10 @@
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1147,10 +1147,10 @@
         <v>2.55</v>
       </c>
       <c r="S4" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="T4" t="n">
-        <v>3.98</v>
+        <v>3.91</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>8.300000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.27</v>
@@ -1329,100 +1329,100 @@
         <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U5" t="n">
         <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W5" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO5" t="n">
         <v>10</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>10.75</v>
       </c>
       <c r="AP5" t="n">
         <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
         <v>60</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,188 +1443,6 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>vuZrw6o9</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>02/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Minnesota United</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Real Salt Lake</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>151</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
